--- a/teaching/traditional_assets/database/data/singapore/singapore_software_system_application.xlsx
+++ b/teaching/traditional_assets/database/data/singapore/singapore_software_system_application.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="sehk_8353" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -351,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AQ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +584,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,22 +593,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>-0.2682387619749447</v>
+        <v>0.08840600226500567</v>
       </c>
       <c r="H2">
-        <v>-0.3310243183492999</v>
+        <v>0.07180067950169874</v>
       </c>
       <c r="I2">
-        <v>-0.372409951211816</v>
+        <v>0.07181988163031688</v>
       </c>
       <c r="J2">
-        <v>-0.372409951211816</v>
+        <v>0.0702635364425927</v>
       </c>
       <c r="K2">
-        <v>-12.21</v>
+        <v>4.622999999999999</v>
       </c>
       <c r="L2">
-        <v>-0.4498894620486367</v>
+        <v>0.06544450736126839</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -615,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -624,79 +626,79 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>2.762</v>
+        <v>14.445</v>
       </c>
       <c r="V2">
-        <v>0.03667994687915007</v>
+        <v>0.006502655982713604</v>
       </c>
       <c r="W2">
-        <v>-0.06412650418532494</v>
+        <v>-0.1059125964010283</v>
       </c>
       <c r="X2">
-        <v>0.08583195629846237</v>
+        <v>0.05948857590989125</v>
       </c>
       <c r="Y2">
-        <v>-0.1499584604837873</v>
+        <v>-0.1654011723109195</v>
       </c>
       <c r="Z2">
-        <v>2.26543665920661</v>
+        <v>5.017324183947071</v>
       </c>
       <c r="AA2">
-        <v>0.601507370802459</v>
+        <v>-1.450079239302694</v>
       </c>
       <c r="AB2">
-        <v>0.08406827002546684</v>
+        <v>0.05941071873438324</v>
       </c>
       <c r="AC2">
-        <v>0.5165000388010041</v>
+        <v>-1.509580478409219</v>
       </c>
       <c r="AD2">
-        <v>1.052</v>
+        <v>3.005</v>
       </c>
       <c r="AE2">
-        <v>1.631030379443424</v>
+        <v>0.08321780817206986</v>
       </c>
       <c r="AF2">
-        <v>2.683030379443424</v>
+        <v>3.08821780817207</v>
       </c>
       <c r="AG2">
-        <v>-0.07896962055657619</v>
+        <v>-11.35678219182793</v>
       </c>
       <c r="AH2">
-        <v>0.03440531057062742</v>
+        <v>0.001388282384887139</v>
       </c>
       <c r="AI2">
-        <v>0.1598751950020249</v>
+        <v>0.06452847493298713</v>
       </c>
       <c r="AJ2">
-        <v>-0.001049834336996229</v>
+        <v>-0.005138714980918386</v>
       </c>
       <c r="AK2">
-        <v>-0.00563262834810713</v>
+        <v>-0.3398889103416533</v>
       </c>
       <c r="AL2">
-        <v>0.002</v>
+        <v>0.131</v>
       </c>
       <c r="AM2">
-        <v>-0.27</v>
+        <v>0.099</v>
       </c>
       <c r="AN2">
-        <v>-0.1185886596776012</v>
+        <v>0.5110544217687075</v>
       </c>
       <c r="AO2">
-        <v>-5510.000000000001</v>
+        <v>38.54961832061068</v>
       </c>
       <c r="AP2">
-        <v>0.008901997582750105</v>
+        <v>-1.93142554282788</v>
       </c>
       <c r="AQ2">
-        <v>40.81481481481482</v>
+        <v>51.010101010101</v>
       </c>
     </row>
     <row r="3">
@@ -707,7 +709,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>New Asia Holdings, Inc. (OTCPK:NAHD)</t>
+          <t>Triterras, Inc. (NasdaqGM:TRIT)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -715,8 +717,23 @@
           <t>Software (System &amp; Application)</t>
         </is>
       </c>
+      <c r="G3">
+        <v>0.8999408284023669</v>
+      </c>
+      <c r="H3">
+        <v>0.8994082840236687</v>
+      </c>
+      <c r="I3">
+        <v>0.8994082840236687</v>
+      </c>
+      <c r="J3">
+        <v>0.8053254437869822</v>
+      </c>
       <c r="K3">
-        <v>-0.16</v>
+        <v>13.6</v>
+      </c>
+      <c r="L3">
+        <v>0.8047337278106509</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -725,7 +742,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -734,67 +751,58 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.032</v>
+        <v>5.89</v>
       </c>
       <c r="V3">
-        <v>0.006274509803921569</v>
-      </c>
-      <c r="W3">
-        <v>0.231548480463097</v>
+        <v>0.006418219461697722</v>
       </c>
       <c r="X3">
-        <v>0.0925544951357913</v>
-      </c>
-      <c r="Y3">
-        <v>0.1389939853273057</v>
-      </c>
-      <c r="Z3">
-        <v>-0</v>
-      </c>
-      <c r="AA3">
-        <v>5.161290322580649</v>
+        <v>0.05939481826531957</v>
       </c>
       <c r="AB3">
-        <v>0.08413870270326834</v>
-      </c>
-      <c r="AC3">
-        <v>5.07715161987738</v>
+        <v>0.05939481826531957</v>
       </c>
       <c r="AD3">
-        <v>0.8159999999999999</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.8159999999999999</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.7839999999999999</v>
+        <v>-5.89</v>
       </c>
       <c r="AH3">
-        <v>0.1379310344827586</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>-23.31428571428569</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.133242692046227</v>
+        <v>-0.00645967909981246</v>
       </c>
       <c r="AK3">
-        <v>-11.70149253731342</v>
+        <v>-0.2383650343990287</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>-0.3875</v>
       </c>
     </row>
     <row r="4">
@@ -805,7 +813,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Synagie Corporation Ltd. (Catalist:V2Y)</t>
+          <t>Anacle Systems Limited (SEHK:8353)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -814,22 +822,22 @@
         </is>
       </c>
       <c r="G4">
-        <v>-0.2962686567164179</v>
+        <v>0.1161151079136691</v>
       </c>
       <c r="H4">
-        <v>-0.2962686567164179</v>
+        <v>0.06992805755395683</v>
       </c>
       <c r="I4">
-        <v>-0.3259453925145176</v>
+        <v>0.1107913669064748</v>
       </c>
       <c r="J4">
-        <v>-0.3259453925145176</v>
+        <v>0.1103764179667502</v>
       </c>
       <c r="K4">
-        <v>-5.69</v>
+        <v>0.635</v>
       </c>
       <c r="L4">
-        <v>-0.4246268656716418</v>
+        <v>0.04568345323741007</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -838,7 +846,7 @@
         <v>-0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -847,76 +855,79 @@
         <v>-0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0468503937007874</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>2.979057591623037</v>
+        <v>0.07595693779904307</v>
       </c>
       <c r="X4">
-        <v>0.08592363966575241</v>
+        <v>0.05984756410061969</v>
       </c>
       <c r="Y4">
-        <v>2.893133951957284</v>
+        <v>0.01610937369842338</v>
       </c>
       <c r="Z4">
-        <v>-4.618048288362361</v>
+        <v>1.648091059995257</v>
       </c>
       <c r="AA4">
-        <v>1.505231562001266</v>
+        <v>0.1819103876853009</v>
       </c>
       <c r="AB4">
-        <v>0.08601682665524452</v>
+        <v>0.05947094417515687</v>
       </c>
       <c r="AC4">
-        <v>1.419214735346021</v>
+        <v>0.122439443510144</v>
       </c>
       <c r="AD4">
-        <v>0.162</v>
+        <v>0.196</v>
       </c>
       <c r="AE4">
-        <v>0.7683412984726776</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.9303412984726777</v>
+        <v>0.196</v>
       </c>
       <c r="AG4">
-        <v>-0.2596587015273223</v>
+        <v>0.196</v>
       </c>
       <c r="AH4">
-        <v>0.03533343103785151</v>
+        <v>0.01077159815344032</v>
       </c>
       <c r="AI4">
-        <v>0.1930032005757467</v>
+        <v>0.02205716857978843</v>
       </c>
       <c r="AJ4">
-        <v>-0.0103283681969384</v>
+        <v>0.01077159815344032</v>
       </c>
       <c r="AK4">
-        <v>-0.07152459787639344</v>
+        <v>0.02205716857978843</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="AM4">
-        <v>-0.224</v>
+        <v>0.023</v>
       </c>
       <c r="AN4">
-        <v>-0.04292527821939587</v>
+        <v>0.1195121951219512</v>
+      </c>
+      <c r="AO4">
+        <v>57.03703703703704</v>
       </c>
       <c r="AP4">
-        <v>0.06880198768609494</v>
+        <v>0.1195121951219512</v>
       </c>
       <c r="AQ4">
-        <v>21.33928571428572</v>
+        <v>66.95652173913044</v>
       </c>
     </row>
     <row r="5">
@@ -927,7 +938,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anacle Systems Limited (SEHK:8353)</t>
+          <t>V2Y Corporation Ltd. (Catalist:V2Y)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -936,22 +947,22 @@
         </is>
       </c>
       <c r="G5">
-        <v>-0.2860082304526749</v>
+        <v>-0.2022922636103152</v>
       </c>
       <c r="H5">
-        <v>-0.418724279835391</v>
+        <v>-0.2022922636103152</v>
       </c>
       <c r="I5">
-        <v>-0.4310224090734721</v>
+        <v>-0.05243553008595989</v>
       </c>
       <c r="J5">
-        <v>-0.4310224090734721</v>
+        <v>-0.05243553008595989</v>
       </c>
       <c r="K5">
-        <v>-4.91</v>
+        <v>-0.412</v>
       </c>
       <c r="L5">
-        <v>-0.5051440329218106</v>
+        <v>-0.01180515759312321</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -975,73 +986,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>6.44</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.6192307692307693</v>
       </c>
       <c r="W5">
-        <v>-0.3776923076923077</v>
+        <v>-0.1059125964010283</v>
       </c>
       <c r="X5">
-        <v>0.08574027293117233</v>
+        <v>0.06003049260824977</v>
       </c>
       <c r="Y5">
-        <v>-0.46343258062348</v>
+        <v>-0.165943089009278</v>
       </c>
       <c r="Z5">
-        <v>0.7011626635515185</v>
+        <v>27.65451664025355</v>
       </c>
       <c r="AA5">
-        <v>-0.3022168203963479</v>
+        <v>-1.450079239302694</v>
       </c>
       <c r="AB5">
-        <v>0.08399783734766533</v>
+        <v>0.05950123910652502</v>
       </c>
       <c r="AC5">
-        <v>-0.3862146577440132</v>
+        <v>-1.509580478409219</v>
       </c>
       <c r="AD5">
-        <v>0.074</v>
+        <v>0.159</v>
       </c>
       <c r="AE5">
-        <v>0.8626890809707464</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.9366890809707463</v>
+        <v>0.159</v>
       </c>
       <c r="AG5">
-        <v>0.9366890809707463</v>
+        <v>-6.281000000000001</v>
       </c>
       <c r="AH5">
-        <v>0.03214809611235137</v>
+        <v>0.01505824415190832</v>
       </c>
       <c r="AI5">
-        <v>0.09832262531184655</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="AJ5">
-        <v>0.03214809611235137</v>
+        <v>-1.524884680747755</v>
       </c>
       <c r="AK5">
-        <v>0.09832262531184655</v>
+        <v>-79.50632911392432</v>
       </c>
       <c r="AL5">
-        <v>0.002</v>
+        <v>0.019</v>
       </c>
       <c r="AM5">
-        <v>-0.002</v>
+        <v>0.002999999999999999</v>
       </c>
       <c r="AN5">
-        <v>-0.01879603759207518</v>
+        <v>-0.1104166666666667</v>
       </c>
       <c r="AO5">
-        <v>-2345</v>
+        <v>-96.31578947368422</v>
       </c>
       <c r="AP5">
-        <v>-0.2379195024055744</v>
+        <v>4.361805555555556</v>
       </c>
       <c r="AQ5">
-        <v>2345</v>
+        <v>-610.0000000000002</v>
       </c>
     </row>
     <row r="6">
@@ -1061,22 +1072,22 @@
         </is>
       </c>
       <c r="G6">
-        <v>-0.1318407960199005</v>
+        <v>-0.4210796915167095</v>
       </c>
       <c r="H6">
-        <v>-0.2348258706467662</v>
+        <v>-0.5552699228791774</v>
       </c>
       <c r="I6">
-        <v>-0.345771144278607</v>
+        <v>-0.5244215938303342</v>
       </c>
       <c r="J6">
-        <v>-0.345771144278607</v>
+        <v>-0.5244215938303342</v>
       </c>
       <c r="K6">
-        <v>-1.45</v>
+        <v>-2.05</v>
       </c>
       <c r="L6">
-        <v>-0.3606965174129353</v>
+        <v>-0.5269922879177378</v>
       </c>
       <c r="M6">
         <v>-0</v>
@@ -1100,31 +1111,31 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.54</v>
+        <v>2.09</v>
       </c>
       <c r="V6">
-        <v>0.09277108433734939</v>
+        <v>0.03306962025316455</v>
       </c>
       <c r="W6">
-        <v>-0.3598014888337469</v>
+        <v>-0.8299595141700403</v>
       </c>
       <c r="X6">
-        <v>0.08395502748569147</v>
+        <v>0.05939481826531957</v>
       </c>
       <c r="Y6">
-        <v>-0.4437565163194384</v>
+        <v>-0.8893543324353599</v>
       </c>
       <c r="Z6">
-        <v>3.828571428571427</v>
+        <v>4.182795698924731</v>
       </c>
       <c r="AA6">
-        <v>-1.323809523809523</v>
+        <v>-2.193548387096774</v>
       </c>
       <c r="AB6">
-        <v>0.08395502748569147</v>
+        <v>0.05939481826531957</v>
       </c>
       <c r="AC6">
-        <v>-1.407764551295215</v>
+        <v>-2.252943205362094</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1136,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>-1.54</v>
+        <v>-2.09</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1145,25 +1156,8868 @@
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>-0.1022576361221779</v>
+        <v>-0.03420062182948781</v>
       </c>
       <c r="AK6">
-        <v>-1.655913978494624</v>
+        <v>-8.359999999999999</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>-0.044</v>
+        <v>-0.012</v>
       </c>
       <c r="AN6">
         <v>-0</v>
       </c>
       <c r="AP6">
-        <v>1.327586206896552</v>
+        <v>1.050251256281407</v>
       </c>
       <c r="AQ6">
-        <v>31.59090909090909</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Noble Vici Group, Inc. (OTCPK:NVGI)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Software (System &amp; Application)</t>
+        </is>
+      </c>
+      <c r="G7">
+        <v>-1.79047619047619</v>
+      </c>
+      <c r="H7">
+        <v>-1.79047619047619</v>
+      </c>
+      <c r="I7">
+        <v>-7.425374820604204</v>
+      </c>
+      <c r="J7">
+        <v>-7.425374820604204</v>
+      </c>
+      <c r="K7">
+        <v>-7.15</v>
+      </c>
+      <c r="L7">
+        <v>-6.809523809523809</v>
+      </c>
+      <c r="M7">
+        <v>-0</v>
+      </c>
+      <c r="N7">
+        <v>-0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>-0</v>
+      </c>
+      <c r="Q7">
+        <v>-0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0.025</v>
+      </c>
+      <c r="V7">
+        <v>2.062536094381652e-05</v>
+      </c>
+      <c r="W7">
+        <v>-1.819338422391858</v>
+      </c>
+      <c r="X7">
+        <v>0.05948857590989125</v>
+      </c>
+      <c r="Y7">
+        <v>-1.878826998301749</v>
+      </c>
+      <c r="Z7">
+        <v>0.3040642259851568</v>
+      </c>
+      <c r="AA7">
+        <v>-2.25779084747669</v>
+      </c>
+      <c r="AB7">
+        <v>0.05941071873438324</v>
+      </c>
+      <c r="AC7">
+        <v>-2.317201566211073</v>
+      </c>
+      <c r="AD7">
+        <v>2.65</v>
+      </c>
+      <c r="AE7">
+        <v>0.08321780817206986</v>
+      </c>
+      <c r="AF7">
+        <v>2.73321780817207</v>
+      </c>
+      <c r="AG7">
+        <v>2.70821780817207</v>
+      </c>
+      <c r="AH7">
+        <v>0.002249870820213</v>
+      </c>
+      <c r="AI7">
+        <v>-5.614868115673013</v>
+      </c>
+      <c r="AJ7">
+        <v>0.002229337741111428</v>
+      </c>
+      <c r="AK7">
+        <v>-5.29173904722855</v>
+      </c>
+      <c r="AL7">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="AM7">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="AN7">
+        <v>-0.3519256308100929</v>
+      </c>
+      <c r="AO7">
+        <v>-92</v>
+      </c>
+      <c r="AP7">
+        <v>-0.3596570794385219</v>
+      </c>
+      <c r="AQ7">
+        <v>-92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Anacle Systems Limited (SEHK:8353)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SEHK:8353</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Software (System &amp; Application)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.0107715981534403</v>
+      </c>
+      <c r="F2">
+        <v>0.38</v>
+      </c>
+      <c r="G2">
+        <v>18</v>
+      </c>
+      <c r="H2">
+        <v>11.7476153467111</v>
+      </c>
+      <c r="I2">
+        <v>18.196</v>
+      </c>
+      <c r="J2">
+        <v>18.6620953467111</v>
+      </c>
+      <c r="K2">
+        <v>0.196</v>
+      </c>
+      <c r="L2">
+        <v>6.91448</v>
+      </c>
+      <c r="M2">
+        <v>0.0594709441751569</v>
+      </c>
+      <c r="N2">
+        <v>0.0577341730053799</v>
+      </c>
+      <c r="O2">
+        <v>0.0248834</v>
+      </c>
+      <c r="P2">
+        <v>0.013446</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.0598475641006197</v>
+      </c>
+      <c r="T2">
+        <v>0.0848785371054515</v>
+      </c>
+      <c r="U2">
+        <v>1.07092296823347</v>
+      </c>
+      <c r="V2">
+        <v>1.60124019291211</v>
+      </c>
+      <c r="W2">
+        <v>13.74821076856998</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>18</v>
+      </c>
+      <c r="AB2">
+        <v>0.0472</v>
+      </c>
+      <c r="AC2">
+        <v>0.02998</v>
+      </c>
+      <c r="AD2">
+        <v>0.17</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>1.64</v>
+      </c>
+      <c r="AH2">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="AI2">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="AJ2">
+        <v>0.196</v>
+      </c>
+      <c r="AK2">
+        <v>0.196</v>
+      </c>
+      <c r="AL2">
+        <v>0.027</v>
+      </c>
+      <c r="AM2">
+        <v>0.196</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.05939481826531957</v>
+      </c>
+      <c r="C2">
+        <v>18.21594141074183</v>
+      </c>
+      <c r="D2">
+        <v>18.21594141074183</v>
+      </c>
+      <c r="E2">
+        <v>-0.196</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>18</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1.64</v>
+      </c>
+      <c r="K2">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L2">
+        <v>1.54</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1.54</v>
+      </c>
+      <c r="O2">
+        <v>0.2618</v>
+      </c>
+      <c r="P2">
+        <v>1.2782</v>
+      </c>
+      <c r="Q2">
+        <v>1.3782</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.05939481826531957</v>
+      </c>
+      <c r="T2">
+        <v>1.061330895451686</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.17</v>
+      </c>
+      <c r="W2">
+        <v>0.013446</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.05935111707426852</v>
+      </c>
+      <c r="C3">
+        <v>18.04544882925515</v>
+      </c>
+      <c r="D3">
+        <v>18.22740882925515</v>
+      </c>
+      <c r="E3">
+        <v>-0.01404</v>
+      </c>
+      <c r="F3">
+        <v>0.18196</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1.64</v>
+      </c>
+      <c r="K3">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L3">
+        <v>1.54</v>
+      </c>
+      <c r="M3">
+        <v>0.002947752</v>
+      </c>
+      <c r="N3">
+        <v>1.537052248</v>
+      </c>
+      <c r="O3">
+        <v>0.26129888216</v>
+      </c>
+      <c r="P3">
+        <v>1.27575336584</v>
+      </c>
+      <c r="Q3">
+        <v>1.37575336584</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.05981480512552376</v>
+      </c>
+      <c r="T3">
+        <v>1.070228922150927</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.17</v>
+      </c>
+      <c r="W3">
+        <v>0.013446</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>522.432009205659</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.05930741588321748</v>
+      </c>
+      <c r="C4">
+        <v>17.87497069495188</v>
+      </c>
+      <c r="D4">
+        <v>18.23889069495188</v>
+      </c>
+      <c r="E4">
+        <v>0.16792</v>
+      </c>
+      <c r="F4">
+        <v>0.36392</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1.64</v>
+      </c>
+      <c r="K4">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L4">
+        <v>1.54</v>
+      </c>
+      <c r="M4">
+        <v>0.005895504</v>
+      </c>
+      <c r="N4">
+        <v>1.534104496</v>
+      </c>
+      <c r="O4">
+        <v>0.26079776432</v>
+      </c>
+      <c r="P4">
+        <v>1.27330673168</v>
+      </c>
+      <c r="Q4">
+        <v>1.37330673168</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.06024336314614029</v>
+      </c>
+      <c r="T4">
+        <v>1.079308541231786</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.17</v>
+      </c>
+      <c r="W4">
+        <v>0.013446</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>261.2160046028296</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.05926371469216644</v>
+      </c>
+      <c r="C5">
+        <v>17.70450703515107</v>
+      </c>
+      <c r="D5">
+        <v>18.25038703515107</v>
+      </c>
+      <c r="E5">
+        <v>0.34988</v>
+      </c>
+      <c r="F5">
+        <v>0.54588</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1.64</v>
+      </c>
+      <c r="K5">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L5">
+        <v>1.54</v>
+      </c>
+      <c r="M5">
+        <v>0.008843256000000001</v>
+      </c>
+      <c r="N5">
+        <v>1.531156744</v>
+      </c>
+      <c r="O5">
+        <v>0.26029664648</v>
+      </c>
+      <c r="P5">
+        <v>1.27086009752</v>
+      </c>
+      <c r="Q5">
+        <v>1.37086009752</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.06068075741460457</v>
+      </c>
+      <c r="T5">
+        <v>1.088575368953487</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.17</v>
+      </c>
+      <c r="W5">
+        <v>0.013446</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>174.144003068553</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.05922001350111539</v>
+      </c>
+      <c r="C6">
+        <v>17.53405787724071</v>
+      </c>
+      <c r="D6">
+        <v>18.26189787724071</v>
+      </c>
+      <c r="E6">
+        <v>0.5318400000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.72784</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>18</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1.64</v>
+      </c>
+      <c r="K6">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L6">
+        <v>1.54</v>
+      </c>
+      <c r="M6">
+        <v>0.011791008</v>
+      </c>
+      <c r="N6">
+        <v>1.528208992</v>
+      </c>
+      <c r="O6">
+        <v>0.25979552864</v>
+      </c>
+      <c r="P6">
+        <v>1.26841346336</v>
+      </c>
+      <c r="Q6">
+        <v>1.36841346336</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.06112726406366187</v>
+      </c>
+      <c r="T6">
+        <v>1.098035255586057</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.17</v>
+      </c>
+      <c r="W6">
+        <v>0.013446</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>130.6080023014148</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.05917631231006434</v>
+      </c>
+      <c r="C7">
+        <v>17.36362324867791</v>
+      </c>
+      <c r="D7">
+        <v>18.27342324867791</v>
+      </c>
+      <c r="E7">
+        <v>0.7138000000000002</v>
+      </c>
+      <c r="F7">
+        <v>0.9098000000000002</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>18</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1.64</v>
+      </c>
+      <c r="K7">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L7">
+        <v>1.54</v>
+      </c>
+      <c r="M7">
+        <v>0.01473876</v>
+      </c>
+      <c r="N7">
+        <v>1.52526124</v>
+      </c>
+      <c r="O7">
+        <v>0.2592944108</v>
+      </c>
+      <c r="P7">
+        <v>1.2659668292</v>
+      </c>
+      <c r="Q7">
+        <v>1.3659668292</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.06158317085269931</v>
+      </c>
+      <c r="T7">
+        <v>1.10769429772668</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.17</v>
+      </c>
+      <c r="W7">
+        <v>0.013446</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>104.4864018411318</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.0591326111190133</v>
+      </c>
+      <c r="C8">
+        <v>17.19320317698912</v>
+      </c>
+      <c r="D8">
+        <v>18.28496317698912</v>
+      </c>
+      <c r="E8">
+        <v>0.8957600000000001</v>
+      </c>
+      <c r="F8">
+        <v>1.09176</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>18</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1.64</v>
+      </c>
+      <c r="K8">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L8">
+        <v>1.54</v>
+      </c>
+      <c r="M8">
+        <v>0.017686512</v>
+      </c>
+      <c r="N8">
+        <v>1.522313488</v>
+      </c>
+      <c r="O8">
+        <v>0.25879329296</v>
+      </c>
+      <c r="P8">
+        <v>1.26352019504</v>
+      </c>
+      <c r="Q8">
+        <v>1.36352019504</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.06204877778618437</v>
+      </c>
+      <c r="T8">
+        <v>1.117558851402211</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.17</v>
+      </c>
+      <c r="W8">
+        <v>0.013446</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>87.07200153427651</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.05908890992796227</v>
+      </c>
+      <c r="C9">
+        <v>17.02279768977042</v>
+      </c>
+      <c r="D9">
+        <v>18.29651768977042</v>
+      </c>
+      <c r="E9">
+        <v>1.07772</v>
+      </c>
+      <c r="F9">
+        <v>1.27372</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>18</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1.64</v>
+      </c>
+      <c r="K9">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L9">
+        <v>1.54</v>
+      </c>
+      <c r="M9">
+        <v>0.020634264</v>
+      </c>
+      <c r="N9">
+        <v>1.519365736</v>
+      </c>
+      <c r="O9">
+        <v>0.25829217512</v>
+      </c>
+      <c r="P9">
+        <v>1.26107356088</v>
+      </c>
+      <c r="Q9">
+        <v>1.36107356088</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.06252439777200244</v>
+      </c>
+      <c r="T9">
+        <v>1.127635546017001</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.17</v>
+      </c>
+      <c r="W9">
+        <v>0.013446</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>74.63314417223701</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.05904520873691124</v>
+      </c>
+      <c r="C10">
+        <v>16.85240681468764</v>
+      </c>
+      <c r="D10">
+        <v>18.30808681468764</v>
+      </c>
+      <c r="E10">
+        <v>1.25968</v>
+      </c>
+      <c r="F10">
+        <v>1.45568</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>18</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1.64</v>
+      </c>
+      <c r="K10">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L10">
+        <v>1.54</v>
+      </c>
+      <c r="M10">
+        <v>0.023582016</v>
+      </c>
+      <c r="N10">
+        <v>1.516417984</v>
+      </c>
+      <c r="O10">
+        <v>0.25779105728</v>
+      </c>
+      <c r="P10">
+        <v>1.25862692672</v>
+      </c>
+      <c r="Q10">
+        <v>1.35862692672</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.0630103573227296</v>
+      </c>
+      <c r="T10">
+        <v>1.137931299210373</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.17</v>
+      </c>
+      <c r="W10">
+        <v>0.013446</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>65.30400115070739</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.05900150754586017</v>
+      </c>
+      <c r="C11">
+        <v>16.68203057947666</v>
+      </c>
+      <c r="D11">
+        <v>18.31967057947666</v>
+      </c>
+      <c r="E11">
+        <v>1.44164</v>
+      </c>
+      <c r="F11">
+        <v>1.63764</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>18</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1.64</v>
+      </c>
+      <c r="K11">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L11">
+        <v>1.54</v>
+      </c>
+      <c r="M11">
+        <v>0.026529768</v>
+      </c>
+      <c r="N11">
+        <v>1.513470232</v>
+      </c>
+      <c r="O11">
+        <v>0.25728993944</v>
+      </c>
+      <c r="P11">
+        <v>1.25618029256</v>
+      </c>
+      <c r="Q11">
+        <v>1.35618029256</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.06350699730314305</v>
+      </c>
+      <c r="T11">
+        <v>1.148453332693709</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.17</v>
+      </c>
+      <c r="W11">
+        <v>0.013446</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>58.04800102285101</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.05895780635480913</v>
+      </c>
+      <c r="C12">
+        <v>16.51166901194357</v>
+      </c>
+      <c r="D12">
+        <v>18.33126901194357</v>
+      </c>
+      <c r="E12">
+        <v>1.6236</v>
+      </c>
+      <c r="F12">
+        <v>1.8196</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>18</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1.64</v>
+      </c>
+      <c r="K12">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L12">
+        <v>1.54</v>
+      </c>
+      <c r="M12">
+        <v>0.02947752</v>
+      </c>
+      <c r="N12">
+        <v>1.51052248</v>
+      </c>
+      <c r="O12">
+        <v>0.2567888216000001</v>
+      </c>
+      <c r="P12">
+        <v>1.2537336584</v>
+      </c>
+      <c r="Q12">
+        <v>1.3537336584</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.0640146737275657</v>
+      </c>
+      <c r="T12">
+        <v>1.159209189143341</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.17</v>
+      </c>
+      <c r="W12">
+        <v>0.013446</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>52.2432009205659</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.05891410516375809</v>
+      </c>
+      <c r="C13">
+        <v>16.34132213996494</v>
+      </c>
+      <c r="D13">
+        <v>18.34288213996495</v>
+      </c>
+      <c r="E13">
+        <v>1.80556</v>
+      </c>
+      <c r="F13">
+        <v>2.00156</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>18</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1.64</v>
+      </c>
+      <c r="K13">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L13">
+        <v>1.54</v>
+      </c>
+      <c r="M13">
+        <v>0.032425272</v>
+      </c>
+      <c r="N13">
+        <v>1.507574728</v>
+      </c>
+      <c r="O13">
+        <v>0.25628770376</v>
+      </c>
+      <c r="P13">
+        <v>1.25128702424</v>
+      </c>
+      <c r="Q13">
+        <v>1.35128702424</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.06453375861096415</v>
+      </c>
+      <c r="T13">
+        <v>1.170206750232291</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.17</v>
+      </c>
+      <c r="W13">
+        <v>0.013446</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>47.49381901869629</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.05887040397270706</v>
+      </c>
+      <c r="C14">
+        <v>16.17098999148804</v>
+      </c>
+      <c r="D14">
+        <v>18.35450999148804</v>
+      </c>
+      <c r="E14">
+        <v>1.98752</v>
+      </c>
+      <c r="F14">
+        <v>2.18352</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>18</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1.64</v>
+      </c>
+      <c r="K14">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L14">
+        <v>1.54</v>
+      </c>
+      <c r="M14">
+        <v>0.035373024</v>
+      </c>
+      <c r="N14">
+        <v>1.504626976</v>
+      </c>
+      <c r="O14">
+        <v>0.25578658592</v>
+      </c>
+      <c r="P14">
+        <v>1.24884039008</v>
+      </c>
+      <c r="Q14">
+        <v>1.34884039008</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.0650646408780762</v>
+      </c>
+      <c r="T14">
+        <v>1.181454255891445</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.17</v>
+      </c>
+      <c r="W14">
+        <v>0.013446</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>43.53600076713825</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.05882670278165601</v>
+      </c>
+      <c r="C15">
+        <v>16.00067259453102</v>
+      </c>
+      <c r="D15">
+        <v>18.36615259453102</v>
+      </c>
+      <c r="E15">
+        <v>2.16948</v>
+      </c>
+      <c r="F15">
+        <v>2.36548</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>18</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1.64</v>
+      </c>
+      <c r="K15">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L15">
+        <v>1.54</v>
+      </c>
+      <c r="M15">
+        <v>0.038320776</v>
+      </c>
+      <c r="N15">
+        <v>1.501679224</v>
+      </c>
+      <c r="O15">
+        <v>0.25528546808</v>
+      </c>
+      <c r="P15">
+        <v>1.24639375592</v>
+      </c>
+      <c r="Q15">
+        <v>1.34639375592</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.06560772733523679</v>
+      </c>
+      <c r="T15">
+        <v>1.192960324899085</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.17</v>
+      </c>
+      <c r="W15">
+        <v>0.013446</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>40.18707763120455</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.05878300159060497</v>
+      </c>
+      <c r="C16">
+        <v>15.83036997718317</v>
+      </c>
+      <c r="D16">
+        <v>18.37780997718317</v>
+      </c>
+      <c r="E16">
+        <v>2.35144</v>
+      </c>
+      <c r="F16">
+        <v>2.54744</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>18</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1.64</v>
+      </c>
+      <c r="K16">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L16">
+        <v>1.54</v>
+      </c>
+      <c r="M16">
+        <v>0.04126852800000001</v>
+      </c>
+      <c r="N16">
+        <v>1.498731472</v>
+      </c>
+      <c r="O16">
+        <v>0.25478435024</v>
+      </c>
+      <c r="P16">
+        <v>1.24394712176</v>
+      </c>
+      <c r="Q16">
+        <v>1.34394712176</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.06616344371000578</v>
+      </c>
+      <c r="T16">
+        <v>1.204733976906902</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.17</v>
+      </c>
+      <c r="W16">
+        <v>0.013446</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>37.31657208611851</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.05873930039955392</v>
+      </c>
+      <c r="C17">
+        <v>15.66008216760517</v>
+      </c>
+      <c r="D17">
+        <v>18.38948216760517</v>
+      </c>
+      <c r="E17">
+        <v>2.5334</v>
+      </c>
+      <c r="F17">
+        <v>2.7294</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>18</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1.64</v>
+      </c>
+      <c r="K17">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L17">
+        <v>1.54</v>
+      </c>
+      <c r="M17">
+        <v>0.04421628</v>
+      </c>
+      <c r="N17">
+        <v>1.49578372</v>
+      </c>
+      <c r="O17">
+        <v>0.2542832324</v>
+      </c>
+      <c r="P17">
+        <v>1.2415004876</v>
+      </c>
+      <c r="Q17">
+        <v>1.3415004876</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.06673223576418108</v>
+      </c>
+      <c r="T17">
+        <v>1.216784656020786</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.17</v>
+      </c>
+      <c r="W17">
+        <v>0.013446</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>34.82880061371061</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.05869559920850286</v>
+      </c>
+      <c r="C18">
+        <v>15.48980919402925</v>
+      </c>
+      <c r="D18">
+        <v>18.40116919402925</v>
+      </c>
+      <c r="E18">
+        <v>2.71536</v>
+      </c>
+      <c r="F18">
+        <v>2.91136</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>18</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1.64</v>
+      </c>
+      <c r="K18">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L18">
+        <v>1.54</v>
+      </c>
+      <c r="M18">
+        <v>0.047164032</v>
+      </c>
+      <c r="N18">
+        <v>1.492835968</v>
+      </c>
+      <c r="O18">
+        <v>0.25378211456</v>
+      </c>
+      <c r="P18">
+        <v>1.23905385344</v>
+      </c>
+      <c r="Q18">
+        <v>1.33905385344</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.06731457048631294</v>
+      </c>
+      <c r="T18">
+        <v>1.229122256065952</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.17</v>
+      </c>
+      <c r="W18">
+        <v>0.013446</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>32.6520005753537</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.05865189801745183</v>
+      </c>
+      <c r="C19">
+        <v>15.31955108475947</v>
+      </c>
+      <c r="D19">
+        <v>18.41287108475947</v>
+      </c>
+      <c r="E19">
+        <v>2.89732</v>
+      </c>
+      <c r="F19">
+        <v>3.09332</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>18</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1.64</v>
+      </c>
+      <c r="K19">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L19">
+        <v>1.54</v>
+      </c>
+      <c r="M19">
+        <v>0.050111784</v>
+      </c>
+      <c r="N19">
+        <v>1.489888216</v>
+      </c>
+      <c r="O19">
+        <v>0.25328099672</v>
+      </c>
+      <c r="P19">
+        <v>1.23660721928</v>
+      </c>
+      <c r="Q19">
+        <v>1.33660721928</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.06791093737042389</v>
+      </c>
+      <c r="T19">
+        <v>1.241757147678472</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.17</v>
+      </c>
+      <c r="W19">
+        <v>0.013446</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>30.73129465915642</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.05860819682640079</v>
+      </c>
+      <c r="C20">
+        <v>15.14930786817195</v>
+      </c>
+      <c r="D20">
+        <v>18.42458786817195</v>
+      </c>
+      <c r="E20">
+        <v>3.07928</v>
+      </c>
+      <c r="F20">
+        <v>3.27528</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>18</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1.64</v>
+      </c>
+      <c r="K20">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L20">
+        <v>1.54</v>
+      </c>
+      <c r="M20">
+        <v>0.053059536</v>
+      </c>
+      <c r="N20">
+        <v>1.486940464</v>
+      </c>
+      <c r="O20">
+        <v>0.25277987888</v>
+      </c>
+      <c r="P20">
+        <v>1.23416058512</v>
+      </c>
+      <c r="Q20">
+        <v>1.33416058512</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.06852184978829365</v>
+      </c>
+      <c r="T20">
+        <v>1.254700207379103</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.17</v>
+      </c>
+      <c r="W20">
+        <v>0.013446</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>29.02400051142551</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.05856449563534975</v>
+      </c>
+      <c r="C21">
+        <v>14.97907957271505</v>
+      </c>
+      <c r="D21">
+        <v>18.43631957271505</v>
+      </c>
+      <c r="E21">
+        <v>3.26124</v>
+      </c>
+      <c r="F21">
+        <v>3.457240000000001</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>18</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1.64</v>
+      </c>
+      <c r="K21">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L21">
+        <v>1.54</v>
+      </c>
+      <c r="M21">
+        <v>0.056007288</v>
+      </c>
+      <c r="N21">
+        <v>1.483992712</v>
+      </c>
+      <c r="O21">
+        <v>0.25227876104</v>
+      </c>
+      <c r="P21">
+        <v>1.23171395096</v>
+      </c>
+      <c r="Q21">
+        <v>1.33171395096</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.06914784646339475</v>
+      </c>
+      <c r="T21">
+        <v>1.267962848800736</v>
+      </c>
+      <c r="U21">
+        <v>0.0162</v>
+      </c>
+      <c r="V21">
+        <v>0.17</v>
+      </c>
+      <c r="W21">
+        <v>0.013446</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>27.49642153713995</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.05852079444429871</v>
+      </c>
+      <c r="C22">
+        <v>14.80886622690967</v>
+      </c>
+      <c r="D22">
+        <v>18.44806622690967</v>
+      </c>
+      <c r="E22">
+        <v>3.4432</v>
+      </c>
+      <c r="F22">
+        <v>3.639200000000001</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>18</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1.64</v>
+      </c>
+      <c r="K22">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L22">
+        <v>1.54</v>
+      </c>
+      <c r="M22">
+        <v>0.05895504000000001</v>
+      </c>
+      <c r="N22">
+        <v>1.48104496</v>
+      </c>
+      <c r="O22">
+        <v>0.2517776432</v>
+      </c>
+      <c r="P22">
+        <v>1.2292673168</v>
+      </c>
+      <c r="Q22">
+        <v>1.3292673168</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.06978949305537338</v>
+      </c>
+      <c r="T22">
+        <v>1.281557056257911</v>
+      </c>
+      <c r="U22">
+        <v>0.0162</v>
+      </c>
+      <c r="V22">
+        <v>0.17</v>
+      </c>
+      <c r="W22">
+        <v>0.013446</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>26.12160046028295</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.05847709325324766</v>
+      </c>
+      <c r="C23">
+        <v>14.63866785934941</v>
+      </c>
+      <c r="D23">
+        <v>18.45982785934941</v>
+      </c>
+      <c r="E23">
+        <v>3.62516</v>
+      </c>
+      <c r="F23">
+        <v>3.82116</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>18</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1.64</v>
+      </c>
+      <c r="K23">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L23">
+        <v>1.54</v>
+      </c>
+      <c r="M23">
+        <v>0.06190279200000001</v>
+      </c>
+      <c r="N23">
+        <v>1.478097208</v>
+      </c>
+      <c r="O23">
+        <v>0.2512765253600001</v>
+      </c>
+      <c r="P23">
+        <v>1.22682068264</v>
+      </c>
+      <c r="Q23">
+        <v>1.32682068264</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.07044738386487046</v>
+      </c>
+      <c r="T23">
+        <v>1.2954954208659</v>
+      </c>
+      <c r="U23">
+        <v>0.0162</v>
+      </c>
+      <c r="V23">
+        <v>0.17</v>
+      </c>
+      <c r="W23">
+        <v>0.013446</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>24.87771472407901</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.05843339206219662</v>
+      </c>
+      <c r="C24">
+        <v>14.46848449870087</v>
+      </c>
+      <c r="D24">
+        <v>18.47160449870087</v>
+      </c>
+      <c r="E24">
+        <v>3.80712</v>
+      </c>
+      <c r="F24">
+        <v>4.00312</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>18</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1.64</v>
+      </c>
+      <c r="K24">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L24">
+        <v>1.54</v>
+      </c>
+      <c r="M24">
+        <v>0.064850544</v>
+      </c>
+      <c r="N24">
+        <v>1.475149456</v>
+      </c>
+      <c r="O24">
+        <v>0.25077540752</v>
+      </c>
+      <c r="P24">
+        <v>1.22437404848</v>
+      </c>
+      <c r="Q24">
+        <v>1.32437404848</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.07112214366948284</v>
+      </c>
+      <c r="T24">
+        <v>1.309791179438196</v>
+      </c>
+      <c r="U24">
+        <v>0.0162</v>
+      </c>
+      <c r="V24">
+        <v>0.17</v>
+      </c>
+      <c r="W24">
+        <v>0.013446</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>23.74690950934814</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.05838969087114558</v>
+      </c>
+      <c r="C25">
+        <v>14.29831617370381</v>
+      </c>
+      <c r="D25">
+        <v>18.48339617370381</v>
+      </c>
+      <c r="E25">
+        <v>3.98908</v>
+      </c>
+      <c r="F25">
+        <v>4.18508</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>18</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1.64</v>
+      </c>
+      <c r="K25">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L25">
+        <v>1.54</v>
+      </c>
+      <c r="M25">
+        <v>0.06779829599999999</v>
+      </c>
+      <c r="N25">
+        <v>1.472201704</v>
+      </c>
+      <c r="O25">
+        <v>0.25027428968</v>
+      </c>
+      <c r="P25">
+        <v>1.22192741432</v>
+      </c>
+      <c r="Q25">
+        <v>1.32192741432</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.07181442970278647</v>
+      </c>
+      <c r="T25">
+        <v>1.324458256414967</v>
+      </c>
+      <c r="U25">
+        <v>0.0162</v>
+      </c>
+      <c r="V25">
+        <v>0.17</v>
+      </c>
+      <c r="W25">
+        <v>0.013446</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>22.71443518285474</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.05834598968009453</v>
+      </c>
+      <c r="C26">
+        <v>14.12816291317146</v>
+      </c>
+      <c r="D26">
+        <v>18.49520291317146</v>
+      </c>
+      <c r="E26">
+        <v>4.171040000000001</v>
+      </c>
+      <c r="F26">
+        <v>4.36704</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>18</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1.64</v>
+      </c>
+      <c r="K26">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L26">
+        <v>1.54</v>
+      </c>
+      <c r="M26">
+        <v>0.07074604800000001</v>
+      </c>
+      <c r="N26">
+        <v>1.469253952</v>
+      </c>
+      <c r="O26">
+        <v>0.24977317184</v>
+      </c>
+      <c r="P26">
+        <v>1.21948078016</v>
+      </c>
+      <c r="Q26">
+        <v>1.31948078016</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.07252493378959807</v>
+      </c>
+      <c r="T26">
+        <v>1.339511309101654</v>
+      </c>
+      <c r="U26">
+        <v>0.0162</v>
+      </c>
+      <c r="V26">
+        <v>0.17</v>
+      </c>
+      <c r="W26">
+        <v>0.013446</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>21.76800038356913</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.05830228848904349</v>
+      </c>
+      <c r="C27">
+        <v>13.9580247459907</v>
+      </c>
+      <c r="D27">
+        <v>18.5070247459907</v>
+      </c>
+      <c r="E27">
+        <v>4.353000000000001</v>
+      </c>
+      <c r="F27">
+        <v>4.549</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>18</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1.64</v>
+      </c>
+      <c r="K27">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L27">
+        <v>1.54</v>
+      </c>
+      <c r="M27">
+        <v>0.0736938</v>
+      </c>
+      <c r="N27">
+        <v>1.4663062</v>
+      </c>
+      <c r="O27">
+        <v>0.249272054</v>
+      </c>
+      <c r="P27">
+        <v>1.217034146</v>
+      </c>
+      <c r="Q27">
+        <v>1.317034146</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.07325438465205798</v>
+      </c>
+      <c r="T27">
+        <v>1.354965776526652</v>
+      </c>
+      <c r="U27">
+        <v>0.0162</v>
+      </c>
+      <c r="V27">
+        <v>0.17</v>
+      </c>
+      <c r="W27">
+        <v>0.013446</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>20.89728036822636</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.05825858729799244</v>
+      </c>
+      <c r="C28">
+        <v>13.78790170112231</v>
+      </c>
+      <c r="D28">
+        <v>18.51886170112231</v>
+      </c>
+      <c r="E28">
+        <v>4.534960000000001</v>
+      </c>
+      <c r="F28">
+        <v>4.73096</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>18</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1.64</v>
+      </c>
+      <c r="K28">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L28">
+        <v>1.54</v>
+      </c>
+      <c r="M28">
+        <v>0.076641552</v>
+      </c>
+      <c r="N28">
+        <v>1.463358448</v>
+      </c>
+      <c r="O28">
+        <v>0.24877093616</v>
+      </c>
+      <c r="P28">
+        <v>1.21458751184</v>
+      </c>
+      <c r="Q28">
+        <v>1.31458751184</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.07400355040269249</v>
+      </c>
+      <c r="T28">
+        <v>1.370837932260434</v>
+      </c>
+      <c r="U28">
+        <v>0.0162</v>
+      </c>
+      <c r="V28">
+        <v>0.17</v>
+      </c>
+      <c r="W28">
+        <v>0.013446</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>20.09353881560227</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.0582148861069414</v>
+      </c>
+      <c r="C29">
+        <v>13.61779380760122</v>
+      </c>
+      <c r="D29">
+        <v>18.53071380760122</v>
+      </c>
+      <c r="E29">
+        <v>4.716920000000001</v>
+      </c>
+      <c r="F29">
+        <v>4.912920000000001</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>18</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1.64</v>
+      </c>
+      <c r="K29">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L29">
+        <v>1.54</v>
+      </c>
+      <c r="M29">
+        <v>0.079589304</v>
+      </c>
+      <c r="N29">
+        <v>1.460410696</v>
+      </c>
+      <c r="O29">
+        <v>0.24826981832</v>
+      </c>
+      <c r="P29">
+        <v>1.21214087768</v>
+      </c>
+      <c r="Q29">
+        <v>1.31214087768</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.07477324124238548</v>
+      </c>
+      <c r="T29">
+        <v>1.387144941575964</v>
+      </c>
+      <c r="U29">
+        <v>0.0162</v>
+      </c>
+      <c r="V29">
+        <v>0.17</v>
+      </c>
+      <c r="W29">
+        <v>0.013446</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>19.34933367428367</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.05817118491589036</v>
+      </c>
+      <c r="C30">
+        <v>13.44770109453673</v>
+      </c>
+      <c r="D30">
+        <v>18.54258109453673</v>
+      </c>
+      <c r="E30">
+        <v>4.898880000000001</v>
+      </c>
+      <c r="F30">
+        <v>5.094880000000001</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>18</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1.64</v>
+      </c>
+      <c r="K30">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L30">
+        <v>1.54</v>
+      </c>
+      <c r="M30">
+        <v>0.08253705600000001</v>
+      </c>
+      <c r="N30">
+        <v>1.457462944</v>
+      </c>
+      <c r="O30">
+        <v>0.24776870048</v>
+      </c>
+      <c r="P30">
+        <v>1.20969424352</v>
+      </c>
+      <c r="Q30">
+        <v>1.30969424352</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.07556431238318106</v>
+      </c>
+      <c r="T30">
+        <v>1.40390492337248</v>
+      </c>
+      <c r="U30">
+        <v>0.0162</v>
+      </c>
+      <c r="V30">
+        <v>0.17</v>
+      </c>
+      <c r="W30">
+        <v>0.013446</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>18.65828604305925</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.05812748372483931</v>
+      </c>
+      <c r="C31">
+        <v>13.27762359111276</v>
+      </c>
+      <c r="D31">
+        <v>18.55446359111276</v>
+      </c>
+      <c r="E31">
+        <v>5.08084</v>
+      </c>
+      <c r="F31">
+        <v>5.27684</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>18</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1.64</v>
+      </c>
+      <c r="K31">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L31">
+        <v>1.54</v>
+      </c>
+      <c r="M31">
+        <v>0.085484808</v>
+      </c>
+      <c r="N31">
+        <v>1.454515192</v>
+      </c>
+      <c r="O31">
+        <v>0.24726758264</v>
+      </c>
+      <c r="P31">
+        <v>1.20724760936</v>
+      </c>
+      <c r="Q31">
+        <v>1.30724760936</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.07637766721808353</v>
+      </c>
+      <c r="T31">
+        <v>1.421137017332278</v>
+      </c>
+      <c r="U31">
+        <v>0.0162</v>
+      </c>
+      <c r="V31">
+        <v>0.17</v>
+      </c>
+      <c r="W31">
+        <v>0.013446</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>18.01489686916066</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.05808378253378827</v>
+      </c>
+      <c r="C32">
+        <v>13.10756132658809</v>
+      </c>
+      <c r="D32">
+        <v>18.56636132658809</v>
+      </c>
+      <c r="E32">
+        <v>5.2628</v>
+      </c>
+      <c r="F32">
+        <v>5.4588</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>18</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1.64</v>
+      </c>
+      <c r="K32">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L32">
+        <v>1.54</v>
+      </c>
+      <c r="M32">
+        <v>0.08843255999999999</v>
+      </c>
+      <c r="N32">
+        <v>1.45156744</v>
+      </c>
+      <c r="O32">
+        <v>0.2467664648</v>
+      </c>
+      <c r="P32">
+        <v>1.2048009752</v>
+      </c>
+      <c r="Q32">
+        <v>1.3048009752</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.07721426076255468</v>
+      </c>
+      <c r="T32">
+        <v>1.438861456833785</v>
+      </c>
+      <c r="U32">
+        <v>0.0162</v>
+      </c>
+      <c r="V32">
+        <v>0.17</v>
+      </c>
+      <c r="W32">
+        <v>0.013446</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>17.41440030685531</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.05804008134273722</v>
+      </c>
+      <c r="C33">
+        <v>12.93751433029657</v>
+      </c>
+      <c r="D33">
+        <v>18.57827433029657</v>
+      </c>
+      <c r="E33">
+        <v>5.44476</v>
+      </c>
+      <c r="F33">
+        <v>5.64076</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>18</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1.64</v>
+      </c>
+      <c r="K33">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L33">
+        <v>1.54</v>
+      </c>
+      <c r="M33">
+        <v>0.09138031200000001</v>
+      </c>
+      <c r="N33">
+        <v>1.448619688</v>
+      </c>
+      <c r="O33">
+        <v>0.24626534696</v>
+      </c>
+      <c r="P33">
+        <v>1.20235434104</v>
+      </c>
+      <c r="Q33">
+        <v>1.30235434104</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.07807510339527134</v>
+      </c>
+      <c r="T33">
+        <v>1.457099648204901</v>
+      </c>
+      <c r="U33">
+        <v>0.0162</v>
+      </c>
+      <c r="V33">
+        <v>0.17</v>
+      </c>
+      <c r="W33">
+        <v>0.013446</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>16.85264545824707</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.05799638015168619</v>
+      </c>
+      <c r="C34">
+        <v>12.76748263164741</v>
+      </c>
+      <c r="D34">
+        <v>18.59020263164741</v>
+      </c>
+      <c r="E34">
+        <v>5.626720000000001</v>
+      </c>
+      <c r="F34">
+        <v>5.82272</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>18</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1.64</v>
+      </c>
+      <c r="K34">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L34">
+        <v>1.54</v>
+      </c>
+      <c r="M34">
+        <v>0.094328064</v>
+      </c>
+      <c r="N34">
+        <v>1.445671936</v>
+      </c>
+      <c r="O34">
+        <v>0.24576422912</v>
+      </c>
+      <c r="P34">
+        <v>1.19990770688</v>
+      </c>
+      <c r="Q34">
+        <v>1.29990770688</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.07896126492895028</v>
+      </c>
+      <c r="T34">
+        <v>1.475874256969286</v>
+      </c>
+      <c r="U34">
+        <v>0.0162</v>
+      </c>
+      <c r="V34">
+        <v>0.17</v>
+      </c>
+      <c r="W34">
+        <v>0.013446</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>16.32600028767685</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.05795267896063514</v>
+      </c>
+      <c r="C35">
+        <v>12.59746626012542</v>
+      </c>
+      <c r="D35">
+        <v>18.60214626012542</v>
+      </c>
+      <c r="E35">
+        <v>5.808680000000001</v>
+      </c>
+      <c r="F35">
+        <v>6.00468</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>18</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1.64</v>
+      </c>
+      <c r="K35">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L35">
+        <v>1.54</v>
+      </c>
+      <c r="M35">
+        <v>0.097275816</v>
+      </c>
+      <c r="N35">
+        <v>1.442724184</v>
+      </c>
+      <c r="O35">
+        <v>0.24526311128</v>
+      </c>
+      <c r="P35">
+        <v>1.19746107272</v>
+      </c>
+      <c r="Q35">
+        <v>1.29746107272</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.0798738790457241</v>
+      </c>
+      <c r="T35">
+        <v>1.495209301816188</v>
+      </c>
+      <c r="U35">
+        <v>0.0162</v>
+      </c>
+      <c r="V35">
+        <v>0.17</v>
+      </c>
+      <c r="W35">
+        <v>0.013446</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>15.83127300623209</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.05790897776958411</v>
+      </c>
+      <c r="C36">
+        <v>12.42746524529116</v>
+      </c>
+      <c r="D36">
+        <v>18.61410524529116</v>
+      </c>
+      <c r="E36">
+        <v>5.990640000000001</v>
+      </c>
+      <c r="F36">
+        <v>6.186640000000001</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>18</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1.64</v>
+      </c>
+      <c r="K36">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L36">
+        <v>1.54</v>
+      </c>
+      <c r="M36">
+        <v>0.100223568</v>
+      </c>
+      <c r="N36">
+        <v>1.439776432</v>
+      </c>
+      <c r="O36">
+        <v>0.24476199344</v>
+      </c>
+      <c r="P36">
+        <v>1.19501443856</v>
+      </c>
+      <c r="Q36">
+        <v>1.29501443856</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.0808141481357335</v>
+      </c>
+      <c r="T36">
+        <v>1.515130257112998</v>
+      </c>
+      <c r="U36">
+        <v>0.0162</v>
+      </c>
+      <c r="V36">
+        <v>0.17</v>
+      </c>
+      <c r="W36">
+        <v>0.013446</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>15.36564732957821</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.05786527657853304</v>
+      </c>
+      <c r="C37">
+        <v>12.25747961678132</v>
+      </c>
+      <c r="D37">
+        <v>18.62607961678133</v>
+      </c>
+      <c r="E37">
+        <v>6.172600000000001</v>
+      </c>
+      <c r="F37">
+        <v>6.368600000000001</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>18</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1.64</v>
+      </c>
+      <c r="K37">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L37">
+        <v>1.54</v>
+      </c>
+      <c r="M37">
+        <v>0.10317132</v>
+      </c>
+      <c r="N37">
+        <v>1.43682868</v>
+      </c>
+      <c r="O37">
+        <v>0.2442608756</v>
+      </c>
+      <c r="P37">
+        <v>1.1925678044</v>
+      </c>
+      <c r="Q37">
+        <v>1.2925678044</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.08178334858235854</v>
+      </c>
+      <c r="T37">
+        <v>1.535664164880478</v>
+      </c>
+      <c r="U37">
+        <v>0.0162</v>
+      </c>
+      <c r="V37">
+        <v>0.17</v>
+      </c>
+      <c r="W37">
+        <v>0.013446</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>14.9266288344474</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.05782157538748202</v>
+      </c>
+      <c r="C38">
+        <v>12.08750940430888</v>
+      </c>
+      <c r="D38">
+        <v>18.63806940430888</v>
+      </c>
+      <c r="E38">
+        <v>6.35456</v>
+      </c>
+      <c r="F38">
+        <v>6.55056</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>18</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1.64</v>
+      </c>
+      <c r="K38">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L38">
+        <v>1.54</v>
+      </c>
+      <c r="M38">
+        <v>0.106119072</v>
+      </c>
+      <c r="N38">
+        <v>1.433880928</v>
+      </c>
+      <c r="O38">
+        <v>0.24375975776</v>
+      </c>
+      <c r="P38">
+        <v>1.19012117024</v>
+      </c>
+      <c r="Q38">
+        <v>1.29012117024</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.08278283654294065</v>
+      </c>
+      <c r="T38">
+        <v>1.556839757265692</v>
+      </c>
+      <c r="U38">
+        <v>0.0162</v>
+      </c>
+      <c r="V38">
+        <v>0.17</v>
+      </c>
+      <c r="W38">
+        <v>0.013446</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>14.51200025571275</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.05777787419643097</v>
+      </c>
+      <c r="C39">
+        <v>11.91755463766336</v>
+      </c>
+      <c r="D39">
+        <v>18.65007463766336</v>
+      </c>
+      <c r="E39">
+        <v>6.53652</v>
+      </c>
+      <c r="F39">
+        <v>6.73252</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>18</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1.64</v>
+      </c>
+      <c r="K39">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L39">
+        <v>1.54</v>
+      </c>
+      <c r="M39">
+        <v>0.109066824</v>
+      </c>
+      <c r="N39">
+        <v>1.430933176</v>
+      </c>
+      <c r="O39">
+        <v>0.24325863992</v>
+      </c>
+      <c r="P39">
+        <v>1.18767453608</v>
+      </c>
+      <c r="Q39">
+        <v>1.28767453608</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.08381405428004916</v>
+      </c>
+      <c r="T39">
+        <v>1.578687590679008</v>
+      </c>
+      <c r="U39">
+        <v>0.0162</v>
+      </c>
+      <c r="V39">
+        <v>0.17</v>
+      </c>
+      <c r="W39">
+        <v>0.013446</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>14.11978403258538</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.05773417300537993</v>
+      </c>
+      <c r="C40">
+        <v>11.7476153467111</v>
+      </c>
+      <c r="D40">
+        <v>18.66209534671111</v>
+      </c>
+      <c r="E40">
+        <v>6.718480000000001</v>
+      </c>
+      <c r="F40">
+        <v>6.914480000000001</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>18</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1.64</v>
+      </c>
+      <c r="K40">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L40">
+        <v>1.54</v>
+      </c>
+      <c r="M40">
+        <v>0.112014576</v>
+      </c>
+      <c r="N40">
+        <v>1.427985424</v>
+      </c>
+      <c r="O40">
+        <v>0.24275752208</v>
+      </c>
+      <c r="P40">
+        <v>1.18522790192</v>
+      </c>
+      <c r="Q40">
+        <v>1.28522790192</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.0848785371054515</v>
+      </c>
+      <c r="T40">
+        <v>1.601240192912108</v>
+      </c>
+      <c r="U40">
+        <v>0.0162</v>
+      </c>
+      <c r="V40">
+        <v>0.17</v>
+      </c>
+      <c r="W40">
+        <v>0.013446</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>13.74821076856998</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.05820839181432887</v>
+      </c>
+      <c r="C41">
+        <v>11.43603640567471</v>
+      </c>
+      <c r="D41">
+        <v>18.53247640567471</v>
+      </c>
+      <c r="E41">
+        <v>6.900440000000001</v>
+      </c>
+      <c r="F41">
+        <v>7.096440000000001</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>18</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1.64</v>
+      </c>
+      <c r="K41">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L41">
+        <v>1.54</v>
+      </c>
+      <c r="M41">
+        <v>0.126316632</v>
+      </c>
+      <c r="N41">
+        <v>1.413683368</v>
+      </c>
+      <c r="O41">
+        <v>0.24032617256</v>
+      </c>
+      <c r="P41">
+        <v>1.17335719544</v>
+      </c>
+      <c r="Q41">
+        <v>1.27335719544</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.08597792100709652</v>
+      </c>
+      <c r="T41">
+        <v>1.624532224726621</v>
+      </c>
+      <c r="U41">
+        <v>0.0178</v>
+      </c>
+      <c r="V41">
+        <v>0.17</v>
+      </c>
+      <c r="W41">
+        <v>0.014774</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>12.19158534879239</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.05817797062327783</v>
+      </c>
+      <c r="C42">
+        <v>11.26233740346797</v>
+      </c>
+      <c r="D42">
+        <v>18.54073740346798</v>
+      </c>
+      <c r="E42">
+        <v>7.082400000000002</v>
+      </c>
+      <c r="F42">
+        <v>7.278400000000001</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>18</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1.64</v>
+      </c>
+      <c r="K42">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L42">
+        <v>1.54</v>
+      </c>
+      <c r="M42">
+        <v>0.12955552</v>
+      </c>
+      <c r="N42">
+        <v>1.41044448</v>
+      </c>
+      <c r="O42">
+        <v>0.2397755616</v>
+      </c>
+      <c r="P42">
+        <v>1.1706689184</v>
+      </c>
+      <c r="Q42">
+        <v>1.2706689184</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.08711395103879639</v>
+      </c>
+      <c r="T42">
+        <v>1.648600657601619</v>
+      </c>
+      <c r="U42">
+        <v>0.0178</v>
+      </c>
+      <c r="V42">
+        <v>0.17</v>
+      </c>
+      <c r="W42">
+        <v>0.014774</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>11.88679571507258</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.0581475494322268</v>
+      </c>
+      <c r="C43">
+        <v>11.08864576935571</v>
+      </c>
+      <c r="D43">
+        <v>18.54900576935571</v>
+      </c>
+      <c r="E43">
+        <v>7.264360000000002</v>
+      </c>
+      <c r="F43">
+        <v>7.460360000000001</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>18</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1.64</v>
+      </c>
+      <c r="K43">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L43">
+        <v>1.54</v>
+      </c>
+      <c r="M43">
+        <v>0.132794408</v>
+      </c>
+      <c r="N43">
+        <v>1.407205592</v>
+      </c>
+      <c r="O43">
+        <v>0.23922495064</v>
+      </c>
+      <c r="P43">
+        <v>1.16798064136</v>
+      </c>
+      <c r="Q43">
+        <v>1.26798064136</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.08828849056309626</v>
+      </c>
+      <c r="T43">
+        <v>1.673484969557124</v>
+      </c>
+      <c r="U43">
+        <v>0.0178</v>
+      </c>
+      <c r="V43">
+        <v>0.17</v>
+      </c>
+      <c r="W43">
+        <v>0.014774</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>11.59687386836349</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.05811712824117576</v>
+      </c>
+      <c r="C44">
+        <v>10.91496151319986</v>
+      </c>
+      <c r="D44">
+        <v>18.55728151319986</v>
+      </c>
+      <c r="E44">
+        <v>7.446320000000001</v>
+      </c>
+      <c r="F44">
+        <v>7.642320000000001</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>18</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1.64</v>
+      </c>
+      <c r="K44">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L44">
+        <v>1.54</v>
+      </c>
+      <c r="M44">
+        <v>0.136033296</v>
+      </c>
+      <c r="N44">
+        <v>1.403966704</v>
+      </c>
+      <c r="O44">
+        <v>0.23867433968</v>
+      </c>
+      <c r="P44">
+        <v>1.16529236432</v>
+      </c>
+      <c r="Q44">
+        <v>1.26529236432</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.08950353145030301</v>
+      </c>
+      <c r="T44">
+        <v>1.699227361235233</v>
+      </c>
+      <c r="U44">
+        <v>0.0178</v>
+      </c>
+      <c r="V44">
+        <v>0.17</v>
+      </c>
+      <c r="W44">
+        <v>0.014774</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>11.32075782387865</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.05808670705012472</v>
+      </c>
+      <c r="C45">
+        <v>10.74128464487999</v>
+      </c>
+      <c r="D45">
+        <v>18.56556464487999</v>
+      </c>
+      <c r="E45">
+        <v>7.628280000000001</v>
+      </c>
+      <c r="F45">
+        <v>7.824280000000001</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>18</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1.64</v>
+      </c>
+      <c r="K45">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L45">
+        <v>1.54</v>
+      </c>
+      <c r="M45">
+        <v>0.139272184</v>
+      </c>
+      <c r="N45">
+        <v>1.400727816</v>
+      </c>
+      <c r="O45">
+        <v>0.23812372872</v>
+      </c>
+      <c r="P45">
+        <v>1.16260408728</v>
+      </c>
+      <c r="Q45">
+        <v>1.26260408728</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.09076120535109598</v>
+      </c>
+      <c r="T45">
+        <v>1.72587299472661</v>
+      </c>
+      <c r="U45">
+        <v>0.0178</v>
+      </c>
+      <c r="V45">
+        <v>0.17</v>
+      </c>
+      <c r="W45">
+        <v>0.014774</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>11.05748438611403</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.05805628585907367</v>
+      </c>
+      <c r="C46">
+        <v>10.56761517429331</v>
+      </c>
+      <c r="D46">
+        <v>18.57385517429331</v>
+      </c>
+      <c r="E46">
+        <v>7.81024</v>
+      </c>
+      <c r="F46">
+        <v>8.00624</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>18</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1.64</v>
+      </c>
+      <c r="K46">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L46">
+        <v>1.54</v>
+      </c>
+      <c r="M46">
+        <v>0.142511072</v>
+      </c>
+      <c r="N46">
+        <v>1.397488928</v>
+      </c>
+      <c r="O46">
+        <v>0.23757311776</v>
+      </c>
+      <c r="P46">
+        <v>1.15991581024</v>
+      </c>
+      <c r="Q46">
+        <v>1.25991581024</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.09206379617691726</v>
+      </c>
+      <c r="T46">
+        <v>1.753470257985535</v>
+      </c>
+      <c r="U46">
+        <v>0.0178</v>
+      </c>
+      <c r="V46">
+        <v>0.17</v>
+      </c>
+      <c r="W46">
+        <v>0.014774</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>10.80617792279326</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.05884756466802261</v>
+      </c>
+      <c r="C47">
+        <v>10.17239285689269</v>
+      </c>
+      <c r="D47">
+        <v>18.36059285689269</v>
+      </c>
+      <c r="E47">
+        <v>7.9922</v>
+      </c>
+      <c r="F47">
+        <v>8.1882</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>18</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1.64</v>
+      </c>
+      <c r="K47">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L47">
+        <v>1.54</v>
+      </c>
+      <c r="M47">
+        <v>0.163764</v>
+      </c>
+      <c r="N47">
+        <v>1.376236</v>
+      </c>
+      <c r="O47">
+        <v>0.23396012</v>
+      </c>
+      <c r="P47">
+        <v>1.14227588</v>
+      </c>
+      <c r="Q47">
+        <v>1.24227588</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.0934137539418593</v>
+      </c>
+      <c r="T47">
+        <v>1.782071058090239</v>
+      </c>
+      <c r="U47">
+        <v>0.02</v>
+      </c>
+      <c r="V47">
+        <v>0.17</v>
+      </c>
+      <c r="W47">
+        <v>0.0166</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>9.403776165701865</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.05883540347697158</v>
+      </c>
+      <c r="C48">
+        <v>9.993673431243112</v>
+      </c>
+      <c r="D48">
+        <v>18.36383343124311</v>
+      </c>
+      <c r="E48">
+        <v>8.174160000000001</v>
+      </c>
+      <c r="F48">
+        <v>8.37016</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>18</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1.64</v>
+      </c>
+      <c r="K48">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L48">
+        <v>1.54</v>
+      </c>
+      <c r="M48">
+        <v>0.1674032</v>
+      </c>
+      <c r="N48">
+        <v>1.3725968</v>
+      </c>
+      <c r="O48">
+        <v>0.2333414560000001</v>
+      </c>
+      <c r="P48">
+        <v>1.139255344</v>
+      </c>
+      <c r="Q48">
+        <v>1.239255344</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.09481371014253996</v>
+      </c>
+      <c r="T48">
+        <v>1.811731147087711</v>
+      </c>
+      <c r="U48">
+        <v>0.02</v>
+      </c>
+      <c r="V48">
+        <v>0.17</v>
+      </c>
+      <c r="W48">
+        <v>0.0166</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>9.199346249056173</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.05882324228592054</v>
+      </c>
+      <c r="C49">
+        <v>9.814955149693402</v>
+      </c>
+      <c r="D49">
+        <v>18.3670751496934</v>
+      </c>
+      <c r="E49">
+        <v>8.356120000000001</v>
+      </c>
+      <c r="F49">
+        <v>8.55212</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>18</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1.64</v>
+      </c>
+      <c r="K49">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L49">
+        <v>1.54</v>
+      </c>
+      <c r="M49">
+        <v>0.1710424</v>
+      </c>
+      <c r="N49">
+        <v>1.3689576</v>
+      </c>
+      <c r="O49">
+        <v>0.232722792</v>
+      </c>
+      <c r="P49">
+        <v>1.136234808</v>
+      </c>
+      <c r="Q49">
+        <v>1.236234808</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.09626649487909536</v>
+      </c>
+      <c r="T49">
+        <v>1.842510484726597</v>
+      </c>
+      <c r="U49">
+        <v>0.02</v>
+      </c>
+      <c r="V49">
+        <v>0.17</v>
+      </c>
+      <c r="W49">
+        <v>0.0166</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>9.003615477799658</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.0588110810948695</v>
+      </c>
+      <c r="C50">
+        <v>9.636238012849555</v>
+      </c>
+      <c r="D50">
+        <v>18.37031801284956</v>
+      </c>
+      <c r="E50">
+        <v>8.538080000000001</v>
+      </c>
+      <c r="F50">
+        <v>8.734080000000001</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>18</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1.64</v>
+      </c>
+      <c r="K50">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L50">
+        <v>1.54</v>
+      </c>
+      <c r="M50">
+        <v>0.1746816</v>
+      </c>
+      <c r="N50">
+        <v>1.3653184</v>
+      </c>
+      <c r="O50">
+        <v>0.232104128</v>
+      </c>
+      <c r="P50">
+        <v>1.133214272</v>
+      </c>
+      <c r="Q50">
+        <v>1.233214272</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.0977751559516721</v>
+      </c>
+      <c r="T50">
+        <v>1.8744736430439</v>
+      </c>
+      <c r="U50">
+        <v>0.02</v>
+      </c>
+      <c r="V50">
+        <v>0.17</v>
+      </c>
+      <c r="W50">
+        <v>0.0166</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>8.816040155345497</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.05879891990381844</v>
+      </c>
+      <c r="C51">
+        <v>9.457522021318008</v>
+      </c>
+      <c r="D51">
+        <v>18.37356202131801</v>
+      </c>
+      <c r="E51">
+        <v>8.720040000000001</v>
+      </c>
+      <c r="F51">
+        <v>8.916040000000001</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>18</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1.64</v>
+      </c>
+      <c r="K51">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L51">
+        <v>1.54</v>
+      </c>
+      <c r="M51">
+        <v>0.1783208</v>
+      </c>
+      <c r="N51">
+        <v>1.3616792</v>
+      </c>
+      <c r="O51">
+        <v>0.231485464</v>
+      </c>
+      <c r="P51">
+        <v>1.130193736</v>
+      </c>
+      <c r="Q51">
+        <v>1.230193736</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.09934298020356558</v>
+      </c>
+      <c r="T51">
+        <v>1.907690258550118</v>
+      </c>
+      <c r="U51">
+        <v>0.02</v>
+      </c>
+      <c r="V51">
+        <v>0.17</v>
+      </c>
+      <c r="W51">
+        <v>0.0166</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>8.636120968501713</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.05878675871276741</v>
+      </c>
+      <c r="C52">
+        <v>9.278807175705607</v>
+      </c>
+      <c r="D52">
+        <v>18.37680717570561</v>
+      </c>
+      <c r="E52">
+        <v>8.902000000000001</v>
+      </c>
+      <c r="F52">
+        <v>9.098000000000001</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>18</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1.64</v>
+      </c>
+      <c r="K52">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L52">
+        <v>1.54</v>
+      </c>
+      <c r="M52">
+        <v>0.18196</v>
+      </c>
+      <c r="N52">
+        <v>1.35804</v>
+      </c>
+      <c r="O52">
+        <v>0.2308668</v>
+      </c>
+      <c r="P52">
+        <v>1.1271732</v>
+      </c>
+      <c r="Q52">
+        <v>1.2271732</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1009735174255348</v>
+      </c>
+      <c r="T52">
+        <v>1.942235538676585</v>
+      </c>
+      <c r="U52">
+        <v>0.02</v>
+      </c>
+      <c r="V52">
+        <v>0.17</v>
+      </c>
+      <c r="W52">
+        <v>0.0166</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>8.463398549131679</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.05877459752171636</v>
+      </c>
+      <c r="C53">
+        <v>9.10009347661965</v>
+      </c>
+      <c r="D53">
+        <v>18.38005347661965</v>
+      </c>
+      <c r="E53">
+        <v>9.083960000000001</v>
+      </c>
+      <c r="F53">
+        <v>9.279960000000001</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>18</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1.64</v>
+      </c>
+      <c r="K53">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L53">
+        <v>1.54</v>
+      </c>
+      <c r="M53">
+        <v>0.1855992</v>
+      </c>
+      <c r="N53">
+        <v>1.3544008</v>
+      </c>
+      <c r="O53">
+        <v>0.230248136</v>
+      </c>
+      <c r="P53">
+        <v>1.124152664</v>
+      </c>
+      <c r="Q53">
+        <v>1.224152664</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1026706071871763</v>
+      </c>
+      <c r="T53">
+        <v>1.978190830236785</v>
+      </c>
+      <c r="U53">
+        <v>0.02</v>
+      </c>
+      <c r="V53">
+        <v>0.17</v>
+      </c>
+      <c r="W53">
+        <v>0.0166</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>8.297449557972232</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.05876243633066532</v>
+      </c>
+      <c r="C54">
+        <v>8.921380924667849</v>
+      </c>
+      <c r="D54">
+        <v>18.38330092466785</v>
+      </c>
+      <c r="E54">
+        <v>9.265920000000001</v>
+      </c>
+      <c r="F54">
+        <v>9.461920000000001</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>18</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1.64</v>
+      </c>
+      <c r="K54">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L54">
+        <v>1.54</v>
+      </c>
+      <c r="M54">
+        <v>0.1892384</v>
+      </c>
+      <c r="N54">
+        <v>1.3507616</v>
+      </c>
+      <c r="O54">
+        <v>0.229629472</v>
+      </c>
+      <c r="P54">
+        <v>1.121132128</v>
+      </c>
+      <c r="Q54">
+        <v>1.221132128</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1044384090222194</v>
+      </c>
+      <c r="T54">
+        <v>2.015644258945327</v>
+      </c>
+      <c r="U54">
+        <v>0.02</v>
+      </c>
+      <c r="V54">
+        <v>0.17</v>
+      </c>
+      <c r="W54">
+        <v>0.0166</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>8.137883220318921</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.05875027513961428</v>
+      </c>
+      <c r="C55">
+        <v>8.742669520458348</v>
+      </c>
+      <c r="D55">
+        <v>18.38654952045835</v>
+      </c>
+      <c r="E55">
+        <v>9.447880000000001</v>
+      </c>
+      <c r="F55">
+        <v>9.643880000000001</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>18</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1.64</v>
+      </c>
+      <c r="K55">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L55">
+        <v>1.54</v>
+      </c>
+      <c r="M55">
+        <v>0.1928776</v>
+      </c>
+      <c r="N55">
+        <v>1.3471224</v>
+      </c>
+      <c r="O55">
+        <v>0.229010808</v>
+      </c>
+      <c r="P55">
+        <v>1.118111592</v>
+      </c>
+      <c r="Q55">
+        <v>1.218111592</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1062814364672644</v>
+      </c>
+      <c r="T55">
+        <v>2.054691450577636</v>
+      </c>
+      <c r="U55">
+        <v>0.02</v>
+      </c>
+      <c r="V55">
+        <v>0.17</v>
+      </c>
+      <c r="W55">
+        <v>0.0166</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>7.984338253897809</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.05923113394856323</v>
+      </c>
+      <c r="C56">
+        <v>8.433127387410268</v>
+      </c>
+      <c r="D56">
+        <v>18.25896738741027</v>
+      </c>
+      <c r="E56">
+        <v>9.629840000000002</v>
+      </c>
+      <c r="F56">
+        <v>9.825840000000001</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>18</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1.64</v>
+      </c>
+      <c r="K56">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L56">
+        <v>1.54</v>
+      </c>
+      <c r="M56">
+        <v>0.207325224</v>
+      </c>
+      <c r="N56">
+        <v>1.332674776</v>
+      </c>
+      <c r="O56">
+        <v>0.22655471192</v>
+      </c>
+      <c r="P56">
+        <v>1.10612006408</v>
+      </c>
+      <c r="Q56">
+        <v>1.20612006408</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1082045955403548</v>
+      </c>
+      <c r="T56">
+        <v>2.095436346193959</v>
+      </c>
+      <c r="U56">
+        <v>0.0211</v>
+      </c>
+      <c r="V56">
+        <v>0.17</v>
+      </c>
+      <c r="W56">
+        <v>0.017513</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>7.427943258848233</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.0592281027575122</v>
+      </c>
+      <c r="C57">
+        <v>8.251966081676118</v>
+      </c>
+      <c r="D57">
+        <v>18.25976608167612</v>
+      </c>
+      <c r="E57">
+        <v>9.811800000000002</v>
+      </c>
+      <c r="F57">
+        <v>10.0078</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>18</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1.64</v>
+      </c>
+      <c r="K57">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L57">
+        <v>1.54</v>
+      </c>
+      <c r="M57">
+        <v>0.21116458</v>
+      </c>
+      <c r="N57">
+        <v>1.32883542</v>
+      </c>
+      <c r="O57">
+        <v>0.2259020214</v>
+      </c>
+      <c r="P57">
+        <v>1.1029333986</v>
+      </c>
+      <c r="Q57">
+        <v>1.2029333986</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1102132283500271</v>
+      </c>
+      <c r="T57">
+        <v>2.137992126059896</v>
+      </c>
+      <c r="U57">
+        <v>0.0211</v>
+      </c>
+      <c r="V57">
+        <v>0.17</v>
+      </c>
+      <c r="W57">
+        <v>0.017513</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>7.292889745050991</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.05922507156646115</v>
+      </c>
+      <c r="C58">
+        <v>8.070804845818914</v>
+      </c>
+      <c r="D58">
+        <v>18.26056484581892</v>
+      </c>
+      <c r="E58">
+        <v>9.993760000000002</v>
+      </c>
+      <c r="F58">
+        <v>10.18976</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>18</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1.64</v>
+      </c>
+      <c r="K58">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L58">
+        <v>1.54</v>
+      </c>
+      <c r="M58">
+        <v>0.215003936</v>
+      </c>
+      <c r="N58">
+        <v>1.324996064</v>
+      </c>
+      <c r="O58">
+        <v>0.22524933088</v>
+      </c>
+      <c r="P58">
+        <v>1.09974673312</v>
+      </c>
+      <c r="Q58">
+        <v>1.19974673312</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1123131626510481</v>
+      </c>
+      <c r="T58">
+        <v>2.182482259556103</v>
+      </c>
+      <c r="U58">
+        <v>0.0211</v>
+      </c>
+      <c r="V58">
+        <v>0.17</v>
+      </c>
+      <c r="W58">
+        <v>0.017513</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>7.162659571032225</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.0592220403754101</v>
+      </c>
+      <c r="C59">
+        <v>7.889643679847831</v>
+      </c>
+      <c r="D59">
+        <v>18.26136367984783</v>
+      </c>
+      <c r="E59">
+        <v>10.17572</v>
+      </c>
+      <c r="F59">
+        <v>10.37172</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>18</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1.64</v>
+      </c>
+      <c r="K59">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L59">
+        <v>1.54</v>
+      </c>
+      <c r="M59">
+        <v>0.2188432920000001</v>
+      </c>
+      <c r="N59">
+        <v>1.321156708</v>
+      </c>
+      <c r="O59">
+        <v>0.22459664036</v>
+      </c>
+      <c r="P59">
+        <v>1.09656006764</v>
+      </c>
+      <c r="Q59">
+        <v>1.19656006764</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1145107683149072</v>
+      </c>
+      <c r="T59">
+        <v>2.229041701587017</v>
+      </c>
+      <c r="U59">
+        <v>0.0211</v>
+      </c>
+      <c r="V59">
+        <v>0.17</v>
+      </c>
+      <c r="W59">
+        <v>0.017513</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>7.036998876803588</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.05921900918435907</v>
+      </c>
+      <c r="C60">
+        <v>7.708482583772032</v>
+      </c>
+      <c r="D60">
+        <v>18.26216258377203</v>
+      </c>
+      <c r="E60">
+        <v>10.35768</v>
+      </c>
+      <c r="F60">
+        <v>10.55368</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>18</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1.64</v>
+      </c>
+      <c r="K60">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L60">
+        <v>1.54</v>
+      </c>
+      <c r="M60">
+        <v>0.222682648</v>
+      </c>
+      <c r="N60">
+        <v>1.317317352</v>
+      </c>
+      <c r="O60">
+        <v>0.22394394984</v>
+      </c>
+      <c r="P60">
+        <v>1.09337340216</v>
+      </c>
+      <c r="Q60">
+        <v>1.19337340216</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1168130218675216</v>
+      </c>
+      <c r="T60">
+        <v>2.277818259905118</v>
+      </c>
+      <c r="U60">
+        <v>0.0211</v>
+      </c>
+      <c r="V60">
+        <v>0.17</v>
+      </c>
+      <c r="W60">
+        <v>0.017513</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>6.915671309962149</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.05921597799330802</v>
+      </c>
+      <c r="C61">
+        <v>7.5273215576007</v>
+      </c>
+      <c r="D61">
+        <v>18.2629615576007</v>
+      </c>
+      <c r="E61">
+        <v>10.53964</v>
+      </c>
+      <c r="F61">
+        <v>10.73564</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>18</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1.64</v>
+      </c>
+      <c r="K61">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L61">
+        <v>1.54</v>
+      </c>
+      <c r="M61">
+        <v>0.226522004</v>
+      </c>
+      <c r="N61">
+        <v>1.313477996</v>
+      </c>
+      <c r="O61">
+        <v>0.22329125932</v>
+      </c>
+      <c r="P61">
+        <v>1.09018673668</v>
+      </c>
+      <c r="Q61">
+        <v>1.19018673668</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.119227580471483</v>
+      </c>
+      <c r="T61">
+        <v>2.328974162531419</v>
+      </c>
+      <c r="U61">
+        <v>0.0211</v>
+      </c>
+      <c r="V61">
+        <v>0.17</v>
+      </c>
+      <c r="W61">
+        <v>0.017513</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>6.798456541996688</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.05921294680225697</v>
+      </c>
+      <c r="C62">
+        <v>7.346160601343005</v>
+      </c>
+      <c r="D62">
+        <v>18.26376060134301</v>
+      </c>
+      <c r="E62">
+        <v>10.7216</v>
+      </c>
+      <c r="F62">
+        <v>10.9176</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>18</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>1.64</v>
+      </c>
+      <c r="K62">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L62">
+        <v>1.54</v>
+      </c>
+      <c r="M62">
+        <v>0.23036136</v>
+      </c>
+      <c r="N62">
+        <v>1.30963864</v>
+      </c>
+      <c r="O62">
+        <v>0.2226385688</v>
+      </c>
+      <c r="P62">
+        <v>1.0870000712</v>
+      </c>
+      <c r="Q62">
+        <v>1.1870000712</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1217628670056424</v>
+      </c>
+      <c r="T62">
+        <v>2.382687860289034</v>
+      </c>
+      <c r="U62">
+        <v>0.0211</v>
+      </c>
+      <c r="V62">
+        <v>0.17</v>
+      </c>
+      <c r="W62">
+        <v>0.017513</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>6.68514893296341</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.05920991561120593</v>
+      </c>
+      <c r="C63">
+        <v>7.164999715008122</v>
+      </c>
+      <c r="D63">
+        <v>18.26455971500812</v>
+      </c>
+      <c r="E63">
+        <v>10.90356</v>
+      </c>
+      <c r="F63">
+        <v>11.09956</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>18</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1.64</v>
+      </c>
+      <c r="K63">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L63">
+        <v>1.54</v>
+      </c>
+      <c r="M63">
+        <v>0.234200716</v>
+      </c>
+      <c r="N63">
+        <v>1.305799284</v>
+      </c>
+      <c r="O63">
+        <v>0.22198587828</v>
+      </c>
+      <c r="P63">
+        <v>1.08381340572</v>
+      </c>
+      <c r="Q63">
+        <v>1.18381340572</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1244281682338614</v>
+      </c>
+      <c r="T63">
+        <v>2.439156106649605</v>
+      </c>
+      <c r="U63">
+        <v>0.0211</v>
+      </c>
+      <c r="V63">
+        <v>0.17</v>
+      </c>
+      <c r="W63">
+        <v>0.017513</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>6.575556327504994</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.05920688442015488</v>
+      </c>
+      <c r="C64">
+        <v>6.983838898605232</v>
+      </c>
+      <c r="D64">
+        <v>18.26535889860523</v>
+      </c>
+      <c r="E64">
+        <v>11.08552</v>
+      </c>
+      <c r="F64">
+        <v>11.28152</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>18</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>1.64</v>
+      </c>
+      <c r="K64">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L64">
+        <v>1.54</v>
+      </c>
+      <c r="M64">
+        <v>0.238040072</v>
+      </c>
+      <c r="N64">
+        <v>1.301959928</v>
+      </c>
+      <c r="O64">
+        <v>0.22133318776</v>
+      </c>
+      <c r="P64">
+        <v>1.08062674024</v>
+      </c>
+      <c r="Q64">
+        <v>1.18062674024</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1272337484740918</v>
+      </c>
+      <c r="T64">
+        <v>2.498596365976521</v>
+      </c>
+      <c r="U64">
+        <v>0.0211</v>
+      </c>
+      <c r="V64">
+        <v>0.17</v>
+      </c>
+      <c r="W64">
+        <v>0.017513</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>6.469498967383945</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.05998820322910382</v>
+      </c>
+      <c r="C65">
+        <v>6.598170118356386</v>
+      </c>
+      <c r="D65">
+        <v>18.06165011835639</v>
+      </c>
+      <c r="E65">
+        <v>11.26748</v>
+      </c>
+      <c r="F65">
+        <v>11.46348</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>18</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1.64</v>
+      </c>
+      <c r="K65">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L65">
+        <v>1.54</v>
+      </c>
+      <c r="M65">
+        <v>0.259074648</v>
+      </c>
+      <c r="N65">
+        <v>1.280925352</v>
+      </c>
+      <c r="O65">
+        <v>0.21775730984</v>
+      </c>
+      <c r="P65">
+        <v>1.06316804216</v>
+      </c>
+      <c r="Q65">
+        <v>1.16316804216</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1301909817002806</v>
+      </c>
+      <c r="T65">
+        <v>2.561249612294081</v>
+      </c>
+      <c r="U65">
+        <v>0.0226</v>
+      </c>
+      <c r="V65">
+        <v>0.17</v>
+      </c>
+      <c r="W65">
+        <v>0.018758</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>5.944232721682594</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.0599976220380528</v>
+      </c>
+      <c r="C66">
+        <v>6.413782120570989</v>
+      </c>
+      <c r="D66">
+        <v>18.05922212057099</v>
+      </c>
+      <c r="E66">
+        <v>11.44944</v>
+      </c>
+      <c r="F66">
+        <v>11.64544</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>18</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1.64</v>
+      </c>
+      <c r="K66">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L66">
+        <v>1.54</v>
+      </c>
+      <c r="M66">
+        <v>0.263186944</v>
+      </c>
+      <c r="N66">
+        <v>1.276813056</v>
+      </c>
+      <c r="O66">
+        <v>0.21705821952</v>
+      </c>
+      <c r="P66">
+        <v>1.05975483648</v>
+      </c>
+      <c r="Q66">
+        <v>1.15975483648</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1333125056612578</v>
+      </c>
+      <c r="T66">
+        <v>2.627383594518173</v>
+      </c>
+      <c r="U66">
+        <v>0.0226</v>
+      </c>
+      <c r="V66">
+        <v>0.17</v>
+      </c>
+      <c r="W66">
+        <v>0.018758</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>5.851354085406304</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.06000704084700176</v>
+      </c>
+      <c r="C67">
+        <v>6.229394775481314</v>
+      </c>
+      <c r="D67">
+        <v>18.05679477548131</v>
+      </c>
+      <c r="E67">
+        <v>11.6314</v>
+      </c>
+      <c r="F67">
+        <v>11.8274</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>18</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1.64</v>
+      </c>
+      <c r="K67">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L67">
+        <v>1.54</v>
+      </c>
+      <c r="M67">
+        <v>0.26729924</v>
+      </c>
+      <c r="N67">
+        <v>1.27270076</v>
+      </c>
+      <c r="O67">
+        <v>0.2163591292</v>
+      </c>
+      <c r="P67">
+        <v>1.0563416308</v>
+      </c>
+      <c r="Q67">
+        <v>1.1563416308</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1366124024200051</v>
+      </c>
+      <c r="T67">
+        <v>2.697296661440785</v>
+      </c>
+      <c r="U67">
+        <v>0.0226</v>
+      </c>
+      <c r="V67">
+        <v>0.17</v>
+      </c>
+      <c r="W67">
+        <v>0.018758</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>5.761333253323129</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.06001645965595071</v>
+      </c>
+      <c r="C68">
+        <v>6.045008082824218</v>
+      </c>
+      <c r="D68">
+        <v>18.05436808282422</v>
+      </c>
+      <c r="E68">
+        <v>11.81336</v>
+      </c>
+      <c r="F68">
+        <v>12.00936</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>18</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1.64</v>
+      </c>
+      <c r="K68">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L68">
+        <v>1.54</v>
+      </c>
+      <c r="M68">
+        <v>0.271411536</v>
+      </c>
+      <c r="N68">
+        <v>1.268588464</v>
+      </c>
+      <c r="O68">
+        <v>0.21566003888</v>
+      </c>
+      <c r="P68">
+        <v>1.05292842512</v>
+      </c>
+      <c r="Q68">
+        <v>1.15292842512</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1401064107527962</v>
+      </c>
+      <c r="T68">
+        <v>2.771322261711784</v>
+      </c>
+      <c r="U68">
+        <v>0.0226</v>
+      </c>
+      <c r="V68">
+        <v>0.17</v>
+      </c>
+      <c r="W68">
+        <v>0.018758</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>5.674040325242476</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.06002587846489967</v>
+      </c>
+      <c r="C69">
+        <v>5.860622042336672</v>
+      </c>
+      <c r="D69">
+        <v>18.05194204233667</v>
+      </c>
+      <c r="E69">
+        <v>11.99532</v>
+      </c>
+      <c r="F69">
+        <v>12.19132</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>18</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>1.64</v>
+      </c>
+      <c r="K69">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L69">
+        <v>1.54</v>
+      </c>
+      <c r="M69">
+        <v>0.275523832</v>
+      </c>
+      <c r="N69">
+        <v>1.264476168</v>
+      </c>
+      <c r="O69">
+        <v>0.21496094856</v>
+      </c>
+      <c r="P69">
+        <v>1.04951521944</v>
+      </c>
+      <c r="Q69">
+        <v>1.14951521944</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1438121771663627</v>
+      </c>
+      <c r="T69">
+        <v>2.849834261999209</v>
+      </c>
+      <c r="U69">
+        <v>0.0226</v>
+      </c>
+      <c r="V69">
+        <v>0.17</v>
+      </c>
+      <c r="W69">
+        <v>0.018758</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>5.589353156209006</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.06003529727384862</v>
+      </c>
+      <c r="C70">
+        <v>5.676236653755826</v>
+      </c>
+      <c r="D70">
+        <v>18.04951665375583</v>
+      </c>
+      <c r="E70">
+        <v>12.17728</v>
+      </c>
+      <c r="F70">
+        <v>12.37328</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>18</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1.64</v>
+      </c>
+      <c r="K70">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L70">
+        <v>1.54</v>
+      </c>
+      <c r="M70">
+        <v>0.279636128</v>
+      </c>
+      <c r="N70">
+        <v>1.260363872</v>
+      </c>
+      <c r="O70">
+        <v>0.21426185824</v>
+      </c>
+      <c r="P70">
+        <v>1.04610201376</v>
+      </c>
+      <c r="Q70">
+        <v>1.14610201376</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.147749553980777</v>
+      </c>
+      <c r="T70">
+        <v>2.933253262304597</v>
+      </c>
+      <c r="U70">
+        <v>0.0226</v>
+      </c>
+      <c r="V70">
+        <v>0.17</v>
+      </c>
+      <c r="W70">
+        <v>0.018758</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>5.507156786264757</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.06004471608279758</v>
+      </c>
+      <c r="C71">
+        <v>5.491851916818934</v>
+      </c>
+      <c r="D71">
+        <v>18.04709191681894</v>
+      </c>
+      <c r="E71">
+        <v>12.35924</v>
+      </c>
+      <c r="F71">
+        <v>12.55524</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>18</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1.64</v>
+      </c>
+      <c r="K71">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L71">
+        <v>1.54</v>
+      </c>
+      <c r="M71">
+        <v>0.283748424</v>
+      </c>
+      <c r="N71">
+        <v>1.256251576</v>
+      </c>
+      <c r="O71">
+        <v>0.21356276792</v>
+      </c>
+      <c r="P71">
+        <v>1.04268880808</v>
+      </c>
+      <c r="Q71">
+        <v>1.14268880808</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1519409551057987</v>
+      </c>
+      <c r="T71">
+        <v>3.022054133597429</v>
+      </c>
+      <c r="U71">
+        <v>0.0226</v>
+      </c>
+      <c r="V71">
+        <v>0.17</v>
+      </c>
+      <c r="W71">
+        <v>0.018758</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>5.427342919797151</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.06005413489174653</v>
+      </c>
+      <c r="C72">
+        <v>5.30746783126342</v>
+      </c>
+      <c r="D72">
+        <v>18.04466783126342</v>
+      </c>
+      <c r="E72">
+        <v>12.5412</v>
+      </c>
+      <c r="F72">
+        <v>12.7372</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>18</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1.64</v>
+      </c>
+      <c r="K72">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L72">
+        <v>1.54</v>
+      </c>
+      <c r="M72">
+        <v>0.28786072</v>
+      </c>
+      <c r="N72">
+        <v>1.25213928</v>
+      </c>
+      <c r="O72">
+        <v>0.2128636776</v>
+      </c>
+      <c r="P72">
+        <v>1.0392756024</v>
+      </c>
+      <c r="Q72">
+        <v>1.1392756024</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1564117829724885</v>
+      </c>
+      <c r="T72">
+        <v>3.116775062976451</v>
+      </c>
+      <c r="U72">
+        <v>0.0226</v>
+      </c>
+      <c r="V72">
+        <v>0.17</v>
+      </c>
+      <c r="W72">
+        <v>0.018758</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>5.349809449514334</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.06006355370069549</v>
+      </c>
+      <c r="C73">
+        <v>5.123084396826838</v>
+      </c>
+      <c r="D73">
+        <v>18.04224439682684</v>
+      </c>
+      <c r="E73">
+        <v>12.72316</v>
+      </c>
+      <c r="F73">
+        <v>12.91916</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>18</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1.64</v>
+      </c>
+      <c r="K73">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L73">
+        <v>1.54</v>
+      </c>
+      <c r="M73">
+        <v>0.291973016</v>
+      </c>
+      <c r="N73">
+        <v>1.248026984</v>
+      </c>
+      <c r="O73">
+        <v>0.21216458728</v>
+      </c>
+      <c r="P73">
+        <v>1.03586239672</v>
+      </c>
+      <c r="Q73">
+        <v>1.13586239672</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1611909437955017</v>
+      </c>
+      <c r="T73">
+        <v>3.21802847024368</v>
+      </c>
+      <c r="U73">
+        <v>0.0226</v>
+      </c>
+      <c r="V73">
+        <v>0.17</v>
+      </c>
+      <c r="W73">
+        <v>0.018758</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>5.274460020647936</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.06007297250964445</v>
+      </c>
+      <c r="C74">
+        <v>4.938701613246883</v>
+      </c>
+      <c r="D74">
+        <v>18.03982161324688</v>
+      </c>
+      <c r="E74">
+        <v>12.90512</v>
+      </c>
+      <c r="F74">
+        <v>13.10112</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>18</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1.64</v>
+      </c>
+      <c r="K74">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L74">
+        <v>1.54</v>
+      </c>
+      <c r="M74">
+        <v>0.296085312</v>
+      </c>
+      <c r="N74">
+        <v>1.243914688</v>
+      </c>
+      <c r="O74">
+        <v>0.21146549696</v>
+      </c>
+      <c r="P74">
+        <v>1.03244919104</v>
+      </c>
+      <c r="Q74">
+        <v>1.13244919104</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1663114732487302</v>
+      </c>
+      <c r="T74">
+        <v>3.326514263744283</v>
+      </c>
+      <c r="U74">
+        <v>0.0226</v>
+      </c>
+      <c r="V74">
+        <v>0.17</v>
+      </c>
+      <c r="W74">
+        <v>0.018758</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>5.20120363147227</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.0600823913185934</v>
+      </c>
+      <c r="C75">
+        <v>4.754319480261392</v>
+      </c>
+      <c r="D75">
+        <v>18.03739948026139</v>
+      </c>
+      <c r="E75">
+        <v>13.08708</v>
+      </c>
+      <c r="F75">
+        <v>13.28308</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>18</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1.64</v>
+      </c>
+      <c r="K75">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L75">
+        <v>1.54</v>
+      </c>
+      <c r="M75">
+        <v>0.300197608</v>
+      </c>
+      <c r="N75">
+        <v>1.239802392</v>
+      </c>
+      <c r="O75">
+        <v>0.21076640664</v>
+      </c>
+      <c r="P75">
+        <v>1.02903598536</v>
+      </c>
+      <c r="Q75">
+        <v>1.12903598536</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.1718113011799756</v>
+      </c>
+      <c r="T75">
+        <v>3.443036041948635</v>
+      </c>
+      <c r="U75">
+        <v>0.0226</v>
+      </c>
+      <c r="V75">
+        <v>0.17</v>
+      </c>
+      <c r="W75">
+        <v>0.018758</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>5.129954266657581</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.06009181012754236</v>
+      </c>
+      <c r="C76">
+        <v>4.569937997608337</v>
+      </c>
+      <c r="D76">
+        <v>18.03497799760834</v>
+      </c>
+      <c r="E76">
+        <v>13.26904</v>
+      </c>
+      <c r="F76">
+        <v>13.46504</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>18</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1.64</v>
+      </c>
+      <c r="K76">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L76">
+        <v>1.54</v>
+      </c>
+      <c r="M76">
+        <v>0.304309904</v>
+      </c>
+      <c r="N76">
+        <v>1.235690096</v>
+      </c>
+      <c r="O76">
+        <v>0.21006731632</v>
+      </c>
+      <c r="P76">
+        <v>1.02562277968</v>
+      </c>
+      <c r="Q76">
+        <v>1.12562277968</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.1777341927982398</v>
+      </c>
+      <c r="T76">
+        <v>3.568521033861014</v>
+      </c>
+      <c r="U76">
+        <v>0.0226</v>
+      </c>
+      <c r="V76">
+        <v>0.17</v>
+      </c>
+      <c r="W76">
+        <v>0.018758</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>5.060630560351399</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.06010122893649132</v>
+      </c>
+      <c r="C77">
+        <v>4.38555716502584</v>
+      </c>
+      <c r="D77">
+        <v>18.03255716502584</v>
+      </c>
+      <c r="E77">
+        <v>13.451</v>
+      </c>
+      <c r="F77">
+        <v>13.647</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>18</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1.64</v>
+      </c>
+      <c r="K77">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L77">
+        <v>1.54</v>
+      </c>
+      <c r="M77">
+        <v>0.3084222</v>
+      </c>
+      <c r="N77">
+        <v>1.2315778</v>
+      </c>
+      <c r="O77">
+        <v>0.209368226</v>
+      </c>
+      <c r="P77">
+        <v>1.022209574</v>
+      </c>
+      <c r="Q77">
+        <v>1.122209574</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.1841309157459653</v>
+      </c>
+      <c r="T77">
+        <v>3.704044825126383</v>
+      </c>
+      <c r="U77">
+        <v>0.0226</v>
+      </c>
+      <c r="V77">
+        <v>0.17</v>
+      </c>
+      <c r="W77">
+        <v>0.018758</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>4.993155486213379</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.06011064774544028</v>
+      </c>
+      <c r="C78">
+        <v>4.201176982252161</v>
+      </c>
+      <c r="D78">
+        <v>18.03013698225216</v>
+      </c>
+      <c r="E78">
+        <v>13.63296</v>
+      </c>
+      <c r="F78">
+        <v>13.82896</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>18</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>1.64</v>
+      </c>
+      <c r="K78">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L78">
+        <v>1.54</v>
+      </c>
+      <c r="M78">
+        <v>0.3125344960000001</v>
+      </c>
+      <c r="N78">
+        <v>1.227465504</v>
+      </c>
+      <c r="O78">
+        <v>0.20866913568</v>
+      </c>
+      <c r="P78">
+        <v>1.01879636832</v>
+      </c>
+      <c r="Q78">
+        <v>1.11879636832</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.1910606989393345</v>
+      </c>
+      <c r="T78">
+        <v>3.850862265663867</v>
+      </c>
+      <c r="U78">
+        <v>0.0226</v>
+      </c>
+      <c r="V78">
+        <v>0.17</v>
+      </c>
+      <c r="W78">
+        <v>0.018758</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>4.927456071921097</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.06012006655438923</v>
+      </c>
+      <c r="C79">
+        <v>4.016797449025699</v>
+      </c>
+      <c r="D79">
+        <v>18.0277174490257</v>
+      </c>
+      <c r="E79">
+        <v>13.81492</v>
+      </c>
+      <c r="F79">
+        <v>14.01092</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>18</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>1.64</v>
+      </c>
+      <c r="K79">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L79">
+        <v>1.54</v>
+      </c>
+      <c r="M79">
+        <v>0.316646792</v>
+      </c>
+      <c r="N79">
+        <v>1.223353208</v>
+      </c>
+      <c r="O79">
+        <v>0.20797004536</v>
+      </c>
+      <c r="P79">
+        <v>1.01538316264</v>
+      </c>
+      <c r="Q79">
+        <v>1.11538316264</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.1985930719756054</v>
+      </c>
+      <c r="T79">
+        <v>4.010446440161131</v>
+      </c>
+      <c r="U79">
+        <v>0.0226</v>
+      </c>
+      <c r="V79">
+        <v>0.17</v>
+      </c>
+      <c r="W79">
+        <v>0.018758</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>4.863463135922123</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.06012948536333818</v>
+      </c>
+      <c r="C80">
+        <v>3.832418565084989</v>
+      </c>
+      <c r="D80">
+        <v>18.02529856508499</v>
+      </c>
+      <c r="E80">
+        <v>13.99688</v>
+      </c>
+      <c r="F80">
+        <v>14.19288</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>18</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>1.64</v>
+      </c>
+      <c r="K80">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L80">
+        <v>1.54</v>
+      </c>
+      <c r="M80">
+        <v>0.320759088</v>
+      </c>
+      <c r="N80">
+        <v>1.219240912</v>
+      </c>
+      <c r="O80">
+        <v>0.20727095504</v>
+      </c>
+      <c r="P80">
+        <v>1.01196995696</v>
+      </c>
+      <c r="Q80">
+        <v>1.11196995696</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2068102061969918</v>
+      </c>
+      <c r="T80">
+        <v>4.184538266885419</v>
+      </c>
+      <c r="U80">
+        <v>0.0226</v>
+      </c>
+      <c r="V80">
+        <v>0.17</v>
+      </c>
+      <c r="W80">
+        <v>0.018758</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>4.801111044435942</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.06013890417228714</v>
+      </c>
+      <c r="C81">
+        <v>3.648040330168719</v>
+      </c>
+      <c r="D81">
+        <v>18.02288033016872</v>
+      </c>
+      <c r="E81">
+        <v>14.17884</v>
+      </c>
+      <c r="F81">
+        <v>14.37484</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>18</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>1.64</v>
+      </c>
+      <c r="K81">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L81">
+        <v>1.54</v>
+      </c>
+      <c r="M81">
+        <v>0.324871384</v>
+      </c>
+      <c r="N81">
+        <v>1.215128616</v>
+      </c>
+      <c r="O81">
+        <v>0.20657186472</v>
+      </c>
+      <c r="P81">
+        <v>1.00855675128</v>
+      </c>
+      <c r="Q81">
+        <v>1.10855675128</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2158099246299388</v>
+      </c>
+      <c r="T81">
+        <v>4.37521026758345</v>
+      </c>
+      <c r="U81">
+        <v>0.0226</v>
+      </c>
+      <c r="V81">
+        <v>0.17</v>
+      </c>
+      <c r="W81">
+        <v>0.018758</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>4.740337486911435</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.0601483229812361</v>
+      </c>
+      <c r="C82">
+        <v>3.463662744015696</v>
+      </c>
+      <c r="D82">
+        <v>18.0204627440157</v>
+      </c>
+      <c r="E82">
+        <v>14.3608</v>
+      </c>
+      <c r="F82">
+        <v>14.5568</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>18</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1.64</v>
+      </c>
+      <c r="K82">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L82">
+        <v>1.54</v>
+      </c>
+      <c r="M82">
+        <v>0.3289836800000001</v>
+      </c>
+      <c r="N82">
+        <v>1.21101632</v>
+      </c>
+      <c r="O82">
+        <v>0.2058727744</v>
+      </c>
+      <c r="P82">
+        <v>1.0051435456</v>
+      </c>
+      <c r="Q82">
+        <v>1.1051435456</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2257096149061806</v>
+      </c>
+      <c r="T82">
+        <v>4.584949468351283</v>
+      </c>
+      <c r="U82">
+        <v>0.0226</v>
+      </c>
+      <c r="V82">
+        <v>0.17</v>
+      </c>
+      <c r="W82">
+        <v>0.018758</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>4.681083268325041</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.06015774179018507</v>
+      </c>
+      <c r="C83">
+        <v>3.279285806364886</v>
+      </c>
+      <c r="D83">
+        <v>18.01804580636489</v>
+      </c>
+      <c r="E83">
+        <v>14.54276</v>
+      </c>
+      <c r="F83">
+        <v>14.73876</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>18</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1.64</v>
+      </c>
+      <c r="K83">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L83">
+        <v>1.54</v>
+      </c>
+      <c r="M83">
+        <v>0.333095976</v>
+      </c>
+      <c r="N83">
+        <v>1.206904024</v>
+      </c>
+      <c r="O83">
+        <v>0.20517368408</v>
+      </c>
+      <c r="P83">
+        <v>1.00173033992</v>
+      </c>
+      <c r="Q83">
+        <v>1.10173033992</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2366513778430794</v>
+      </c>
+      <c r="T83">
+        <v>4.816766479726258</v>
+      </c>
+      <c r="U83">
+        <v>0.0226</v>
+      </c>
+      <c r="V83">
+        <v>0.17</v>
+      </c>
+      <c r="W83">
+        <v>0.018758</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>4.623292116864239</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.06016716059913402</v>
+      </c>
+      <c r="C84">
+        <v>3.094909516955397</v>
+      </c>
+      <c r="D84">
+        <v>18.0156295169554</v>
+      </c>
+      <c r="E84">
+        <v>14.72472</v>
+      </c>
+      <c r="F84">
+        <v>14.92072</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>18</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>1.64</v>
+      </c>
+      <c r="K84">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L84">
+        <v>1.54</v>
+      </c>
+      <c r="M84">
+        <v>0.337208272</v>
+      </c>
+      <c r="N84">
+        <v>1.202791728</v>
+      </c>
+      <c r="O84">
+        <v>0.20447459376</v>
+      </c>
+      <c r="P84">
+        <v>0.99831713424</v>
+      </c>
+      <c r="Q84">
+        <v>1.09831713424</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.2488088922174113</v>
+      </c>
+      <c r="T84">
+        <v>5.074340936809562</v>
+      </c>
+      <c r="U84">
+        <v>0.0226</v>
+      </c>
+      <c r="V84">
+        <v>0.17</v>
+      </c>
+      <c r="W84">
+        <v>0.018758</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>4.566910505682968</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.06017657940808296</v>
+      </c>
+      <c r="C85">
+        <v>2.910533875526465</v>
+      </c>
+      <c r="D85">
+        <v>18.01321387552647</v>
+      </c>
+      <c r="E85">
+        <v>14.90668</v>
+      </c>
+      <c r="F85">
+        <v>15.10268</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>18</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1.64</v>
+      </c>
+      <c r="K85">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L85">
+        <v>1.54</v>
+      </c>
+      <c r="M85">
+        <v>0.341320568</v>
+      </c>
+      <c r="N85">
+        <v>1.198679432</v>
+      </c>
+      <c r="O85">
+        <v>0.20377550344</v>
+      </c>
+      <c r="P85">
+        <v>0.99490392856</v>
+      </c>
+      <c r="Q85">
+        <v>1.09490392856</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2623967024004882</v>
+      </c>
+      <c r="T85">
+        <v>5.362218271196784</v>
+      </c>
+      <c r="U85">
+        <v>0.0226</v>
+      </c>
+      <c r="V85">
+        <v>0.17</v>
+      </c>
+      <c r="W85">
+        <v>0.018758</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>4.511887487542209</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.1221426269631377</v>
+      </c>
+      <c r="C86">
+        <v>-5.714071745064006</v>
+      </c>
+      <c r="D86">
+        <v>9.570568254935996</v>
+      </c>
+      <c r="E86">
+        <v>15.08864</v>
+      </c>
+      <c r="F86">
+        <v>15.28464</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>18</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1.64</v>
+      </c>
+      <c r="K86">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L86">
+        <v>1.54</v>
+      </c>
+      <c r="M86">
+        <v>1.66602576</v>
+      </c>
+      <c r="N86">
+        <v>-0.1260257600000001</v>
+      </c>
+      <c r="O86">
+        <v>-0.02142437920000002</v>
+      </c>
+      <c r="P86">
+        <v>-0.1046013808000001</v>
+      </c>
+      <c r="Q86">
+        <v>-0.004601380800000221</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.2810650281041345</v>
+      </c>
+      <c r="T86">
+        <v>5.757733646274038</v>
+      </c>
+      <c r="U86">
+        <v>0.109</v>
+      </c>
+      <c r="V86">
+        <v>0.1571404274085174</v>
+      </c>
+      <c r="W86">
+        <v>0.0918716934124716</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.9243554553442198</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.1231396269631377</v>
+      </c>
+      <c r="C87">
+        <v>-5.967663190628159</v>
+      </c>
+      <c r="D87">
+        <v>9.498936809371843</v>
+      </c>
+      <c r="E87">
+        <v>15.2706</v>
+      </c>
+      <c r="F87">
+        <v>15.4666</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>18</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1.64</v>
+      </c>
+      <c r="K87">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L87">
+        <v>1.54</v>
+      </c>
+      <c r="M87">
+        <v>1.6858594</v>
+      </c>
+      <c r="N87">
+        <v>-0.1458594000000002</v>
+      </c>
+      <c r="O87">
+        <v>-0.02479609800000003</v>
+      </c>
+      <c r="P87">
+        <v>-0.1210633020000002</v>
+      </c>
+      <c r="Q87">
+        <v>-0.0210633020000003</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.2991826966444102</v>
+      </c>
+      <c r="T87">
+        <v>6.141582556025641</v>
+      </c>
+      <c r="U87">
+        <v>0.109</v>
+      </c>
+      <c r="V87">
+        <v>0.1552917164978289</v>
+      </c>
+      <c r="W87">
+        <v>0.09207320290173665</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.9134806852813466</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.1241366269631377</v>
+      </c>
+      <c r="C88">
+        <v>-6.220190342949488</v>
+      </c>
+      <c r="D88">
+        <v>9.428369657050514</v>
+      </c>
+      <c r="E88">
+        <v>15.45256</v>
+      </c>
+      <c r="F88">
+        <v>15.64856</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>18</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>1.64</v>
+      </c>
+      <c r="K88">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L88">
+        <v>1.54</v>
+      </c>
+      <c r="M88">
+        <v>1.70569304</v>
+      </c>
+      <c r="N88">
+        <v>-0.1656930400000001</v>
+      </c>
+      <c r="O88">
+        <v>-0.02816781680000001</v>
+      </c>
+      <c r="P88">
+        <v>-0.1375252232</v>
+      </c>
+      <c r="Q88">
+        <v>-0.03752522320000018</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.3198886035475824</v>
+      </c>
+      <c r="T88">
+        <v>6.580267024313186</v>
+      </c>
+      <c r="U88">
+        <v>0.109</v>
+      </c>
+      <c r="V88">
+        <v>0.1534859988641332</v>
+      </c>
+      <c r="W88">
+        <v>0.09227002612380947</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.9028588168478426</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.1251336269631377</v>
+      </c>
+      <c r="C89">
+        <v>-6.471676746866994</v>
+      </c>
+      <c r="D89">
+        <v>9.358843253133008</v>
+      </c>
+      <c r="E89">
+        <v>15.63452</v>
+      </c>
+      <c r="F89">
+        <v>15.83052</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>18</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1.64</v>
+      </c>
+      <c r="K89">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L89">
+        <v>1.54</v>
+      </c>
+      <c r="M89">
+        <v>1.72552668</v>
+      </c>
+      <c r="N89">
+        <v>-0.1855266800000002</v>
+      </c>
+      <c r="O89">
+        <v>-0.03153953560000003</v>
+      </c>
+      <c r="P89">
+        <v>-0.1539871444000001</v>
+      </c>
+      <c r="Q89">
+        <v>-0.05398714440000027</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.3437800345897041</v>
+      </c>
+      <c r="T89">
+        <v>7.086441410798816</v>
+      </c>
+      <c r="U89">
+        <v>0.109</v>
+      </c>
+      <c r="V89">
+        <v>0.1517217919806375</v>
+      </c>
+      <c r="W89">
+        <v>0.09246232467411052</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.8924811292978674</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.1261306269631377</v>
+      </c>
+      <c r="C90">
+        <v>-6.722145257808904</v>
+      </c>
+      <c r="D90">
+        <v>9.290334742191096</v>
+      </c>
+      <c r="E90">
+        <v>15.81648</v>
+      </c>
+      <c r="F90">
+        <v>16.01248</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>18</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>1.64</v>
+      </c>
+      <c r="K90">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L90">
+        <v>1.54</v>
+      </c>
+      <c r="M90">
+        <v>1.74536032</v>
+      </c>
+      <c r="N90">
+        <v>-0.20536032</v>
+      </c>
+      <c r="O90">
+        <v>-0.03491125440000001</v>
+      </c>
+      <c r="P90">
+        <v>-0.1704490656</v>
+      </c>
+      <c r="Q90">
+        <v>-0.07044906560000017</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.3716533708055128</v>
+      </c>
+      <c r="T90">
+        <v>7.676978195032052</v>
+      </c>
+      <c r="U90">
+        <v>0.109</v>
+      </c>
+      <c r="V90">
+        <v>0.1499976807081302</v>
+      </c>
+      <c r="W90">
+        <v>0.0926502528028138</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.882339298283119</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.1271276269631377</v>
+      </c>
+      <c r="C91">
+        <v>-6.971618066842382</v>
+      </c>
+      <c r="D91">
+        <v>9.222821933157618</v>
+      </c>
+      <c r="E91">
+        <v>15.99844</v>
+      </c>
+      <c r="F91">
+        <v>16.19444</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>18</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1.64</v>
+      </c>
+      <c r="K91">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L91">
+        <v>1.54</v>
+      </c>
+      <c r="M91">
+        <v>1.76519396</v>
+      </c>
+      <c r="N91">
+        <v>-0.2251939599999999</v>
+      </c>
+      <c r="O91">
+        <v>-0.03828297319999999</v>
+      </c>
+      <c r="P91">
+        <v>-0.1869109867999999</v>
+      </c>
+      <c r="Q91">
+        <v>-0.08691098680000006</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.4045945863332868</v>
+      </c>
+      <c r="T91">
+        <v>8.374885303671331</v>
+      </c>
+      <c r="U91">
+        <v>0.109</v>
+      </c>
+      <c r="V91">
+        <v>0.1483123135091625</v>
+      </c>
+      <c r="W91">
+        <v>0.09283395782750128</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.8724253735833087</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.1281246269631377</v>
+      </c>
+      <c r="C92">
+        <v>-7.220116724638917</v>
+      </c>
+      <c r="D92">
+        <v>9.156283275361083</v>
+      </c>
+      <c r="E92">
+        <v>16.1804</v>
+      </c>
+      <c r="F92">
+        <v>16.3764</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>18</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>1.64</v>
+      </c>
+      <c r="K92">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L92">
+        <v>1.54</v>
+      </c>
+      <c r="M92">
+        <v>1.7850276</v>
+      </c>
+      <c r="N92">
+        <v>-0.2450276</v>
+      </c>
+      <c r="O92">
+        <v>-0.04165469200000001</v>
+      </c>
+      <c r="P92">
+        <v>-0.203372908</v>
+      </c>
+      <c r="Q92">
+        <v>-0.1033729080000002</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.4441240449666155</v>
+      </c>
+      <c r="T92">
+        <v>9.212373834038464</v>
+      </c>
+      <c r="U92">
+        <v>0.109</v>
+      </c>
+      <c r="V92">
+        <v>0.1466643989146162</v>
+      </c>
+      <c r="W92">
+        <v>0.09301358051830683</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.8627317583212719</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.1291216269631377</v>
+      </c>
+      <c r="C93">
+        <v>-7.467662164409726</v>
+      </c>
+      <c r="D93">
+        <v>9.090697835590275</v>
+      </c>
+      <c r="E93">
+        <v>16.36236</v>
+      </c>
+      <c r="F93">
+        <v>16.55836</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>18</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>1.64</v>
+      </c>
+      <c r="K93">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L93">
+        <v>1.54</v>
+      </c>
+      <c r="M93">
+        <v>1.80486124</v>
+      </c>
+      <c r="N93">
+        <v>-0.2648612400000001</v>
+      </c>
+      <c r="O93">
+        <v>-0.04502641080000002</v>
+      </c>
+      <c r="P93">
+        <v>-0.2198348292000001</v>
+      </c>
+      <c r="Q93">
+        <v>-0.1198348292000002</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.4924378277406838</v>
+      </c>
+      <c r="T93">
+        <v>10.2359709267094</v>
+      </c>
+      <c r="U93">
+        <v>0.109</v>
+      </c>
+      <c r="V93">
+        <v>0.1450527022232468</v>
+      </c>
+      <c r="W93">
+        <v>0.0931892554576661</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.8532511895485106</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.1301186269631377</v>
+      </c>
+      <c r="C94">
+        <v>-7.714274723862504</v>
+      </c>
+      <c r="D94">
+        <v>9.026045276137497</v>
+      </c>
+      <c r="E94">
+        <v>16.54432</v>
+      </c>
+      <c r="F94">
+        <v>16.74032</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>18</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>1.64</v>
+      </c>
+      <c r="K94">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L94">
+        <v>1.54</v>
+      </c>
+      <c r="M94">
+        <v>1.82469488</v>
+      </c>
+      <c r="N94">
+        <v>-0.28469488</v>
+      </c>
+      <c r="O94">
+        <v>-0.0483981296</v>
+      </c>
+      <c r="P94">
+        <v>-0.2362967504</v>
+      </c>
+      <c r="Q94">
+        <v>-0.1362967504000001</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.5528300562082694</v>
+      </c>
+      <c r="T94">
+        <v>11.51546729254808</v>
+      </c>
+      <c r="U94">
+        <v>0.109</v>
+      </c>
+      <c r="V94">
+        <v>0.1434760424164724</v>
+      </c>
+      <c r="W94">
+        <v>0.09336111137660451</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.8439767200968964</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.1311156269631377</v>
+      </c>
+      <c r="C95">
+        <v>-7.959974166227795</v>
+      </c>
+      <c r="D95">
+        <v>8.962305833772206</v>
+      </c>
+      <c r="E95">
+        <v>16.72628</v>
+      </c>
+      <c r="F95">
+        <v>16.92228</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>18</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>1.64</v>
+      </c>
+      <c r="K95">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L95">
+        <v>1.54</v>
+      </c>
+      <c r="M95">
+        <v>1.84452852</v>
+      </c>
+      <c r="N95">
+        <v>-0.3045285200000001</v>
+      </c>
+      <c r="O95">
+        <v>-0.05176984840000002</v>
+      </c>
+      <c r="P95">
+        <v>-0.2527586716</v>
+      </c>
+      <c r="Q95">
+        <v>-0.1527586716000002</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.6304772070951652</v>
+      </c>
+      <c r="T95">
+        <v>13.16053404862638</v>
+      </c>
+      <c r="U95">
+        <v>0.109</v>
+      </c>
+      <c r="V95">
+        <v>0.1419332892722092</v>
+      </c>
+      <c r="W95">
+        <v>0.09352927146932918</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.8349017016012308</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.1321126269631377</v>
+      </c>
+      <c r="C96">
+        <v>-8.204779700400794</v>
+      </c>
+      <c r="D96">
+        <v>8.899460299599207</v>
+      </c>
+      <c r="E96">
+        <v>16.90824</v>
+      </c>
+      <c r="F96">
+        <v>17.10424</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>18</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>1.64</v>
+      </c>
+      <c r="K96">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L96">
+        <v>1.54</v>
+      </c>
+      <c r="M96">
+        <v>1.86436216</v>
+      </c>
+      <c r="N96">
+        <v>-0.32436216</v>
+      </c>
+      <c r="O96">
+        <v>-0.0551415672</v>
+      </c>
+      <c r="P96">
+        <v>-0.2692205927999999</v>
+      </c>
+      <c r="Q96">
+        <v>-0.1692205928000001</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.7340067416110263</v>
+      </c>
+      <c r="T96">
+        <v>15.35395639006412</v>
+      </c>
+      <c r="U96">
+        <v>0.109</v>
+      </c>
+      <c r="V96">
+        <v>0.1404233606629304</v>
+      </c>
+      <c r="W96">
+        <v>0.09369385368774059</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.8260197686054731</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.1331096269631377</v>
+      </c>
+      <c r="C97">
+        <v>-8.448710000241542</v>
+      </c>
+      <c r="D97">
+        <v>8.837489999758459</v>
+      </c>
+      <c r="E97">
+        <v>17.0902</v>
+      </c>
+      <c r="F97">
+        <v>17.2862</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>18</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>1.64</v>
+      </c>
+      <c r="K97">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L97">
+        <v>1.54</v>
+      </c>
+      <c r="M97">
+        <v>1.8841958</v>
+      </c>
+      <c r="N97">
+        <v>-0.3441958000000001</v>
+      </c>
+      <c r="O97">
+        <v>-0.05851328600000001</v>
+      </c>
+      <c r="P97">
+        <v>-0.2856825140000001</v>
+      </c>
+      <c r="Q97">
+        <v>-0.1856825140000002</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.878948089933232</v>
+      </c>
+      <c r="T97">
+        <v>18.42474766807695</v>
+      </c>
+      <c r="U97">
+        <v>0.109</v>
+      </c>
+      <c r="V97">
+        <v>0.1389452200243733</v>
+      </c>
+      <c r="W97">
+        <v>0.09385497101734332</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.8173248236727839</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.1341066269631377</v>
+      </c>
+      <c r="C98">
+        <v>-8.691783223074383</v>
+      </c>
+      <c r="D98">
+        <v>8.776376776925618</v>
+      </c>
+      <c r="E98">
+        <v>17.27216</v>
+      </c>
+      <c r="F98">
+        <v>17.46816</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>18</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>1.64</v>
+      </c>
+      <c r="K98">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L98">
+        <v>1.54</v>
+      </c>
+      <c r="M98">
+        <v>1.90402944</v>
+      </c>
+      <c r="N98">
+        <v>-0.3640294400000001</v>
+      </c>
+      <c r="O98">
+        <v>-0.06188500480000003</v>
+      </c>
+      <c r="P98">
+        <v>-0.3021444352000001</v>
+      </c>
+      <c r="Q98">
+        <v>-0.2021444352000002</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.096360112416538</v>
+      </c>
+      <c r="T98">
+        <v>23.03093458509614</v>
+      </c>
+      <c r="U98">
+        <v>0.109</v>
+      </c>
+      <c r="V98">
+        <v>0.1374978739824527</v>
+      </c>
+      <c r="W98">
+        <v>0.09401273173591265</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.8088110234261924</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.1351036269631377</v>
+      </c>
+      <c r="C99">
+        <v>-8.934017027425115</v>
+      </c>
+      <c r="D99">
+        <v>8.716102972574886</v>
+      </c>
+      <c r="E99">
+        <v>17.45412</v>
+      </c>
+      <c r="F99">
+        <v>17.65012</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>18</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>1.64</v>
+      </c>
+      <c r="K99">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L99">
+        <v>1.54</v>
+      </c>
+      <c r="M99">
+        <v>1.92386308</v>
+      </c>
+      <c r="N99">
+        <v>-0.38386308</v>
+      </c>
+      <c r="O99">
+        <v>-0.06525672360000001</v>
+      </c>
+      <c r="P99">
+        <v>-0.3186063564</v>
+      </c>
+      <c r="Q99">
+        <v>-0.2186063564000001</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.45871348322205</v>
+      </c>
+      <c r="T99">
+        <v>30.70791278012818</v>
+      </c>
+      <c r="U99">
+        <v>0.109</v>
+      </c>
+      <c r="V99">
+        <v>0.1360803701269635</v>
+      </c>
+      <c r="W99">
+        <v>0.09416723965616097</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.8004727654527265</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.1681481484294867</v>
+      </c>
+      <c r="C100">
+        <v>-10.73210113641354</v>
+      </c>
+      <c r="D100">
+        <v>7.099978863586457</v>
+      </c>
+      <c r="E100">
+        <v>17.63608</v>
+      </c>
+      <c r="F100">
+        <v>17.83208</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>18</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>1.64</v>
+      </c>
+      <c r="K100">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L100">
+        <v>1.54</v>
+      </c>
+      <c r="M100">
+        <v>2.500057616</v>
+      </c>
+      <c r="N100">
+        <v>-0.9600576159999998</v>
+      </c>
+      <c r="O100">
+        <v>-0.16320979472</v>
+      </c>
+      <c r="P100">
+        <v>-0.7968478212799999</v>
+      </c>
+      <c r="Q100">
+        <v>-0.69684782128</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.256996298150526</v>
+      </c>
+      <c r="T100">
+        <v>47.62068428285011</v>
+      </c>
+      <c r="U100">
+        <v>0.1402</v>
+      </c>
+      <c r="V100">
+        <v>0.1047175866366113</v>
+      </c>
+      <c r="W100">
+        <v>0.1255185943535471</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.6159858037447726</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.1694571484294867</v>
+      </c>
+      <c r="C101">
+        <v>-10.96583032422008</v>
+      </c>
+      <c r="D101">
+        <v>7.048209675779917</v>
+      </c>
+      <c r="E101">
+        <v>17.81804</v>
+      </c>
+      <c r="F101">
+        <v>18.01404</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>18</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>1.64</v>
+      </c>
+      <c r="K101">
+        <v>0.09999999999999987</v>
+      </c>
+      <c r="L101">
+        <v>1.54</v>
+      </c>
+      <c r="M101">
+        <v>2.525568408</v>
+      </c>
+      <c r="N101">
+        <v>-0.9855684079999998</v>
+      </c>
+      <c r="O101">
+        <v>-0.16754662936</v>
+      </c>
+      <c r="P101">
+        <v>-0.8180217786399998</v>
+      </c>
+      <c r="Q101">
+        <v>-0.7180217786399999</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>4.504692596301051</v>
+      </c>
+      <c r="T101">
+        <v>95.24136856570023</v>
+      </c>
+      <c r="U101">
+        <v>0.1402</v>
+      </c>
+      <c r="V101">
+        <v>0.1036598332362415</v>
+      </c>
+      <c r="W101">
+        <v>0.1256668913802789</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.6097637249190679</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
